--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E7" s="2">
         <v>43826</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43644</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43553</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43462</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43371</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43280</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43189</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43098</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43007</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42734</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3731600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4253600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3951200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4010800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4000000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4265300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3913600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3971600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3939300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3965100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3654100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3593300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3621600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3735400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3226700</v>
+      </c>
+      <c r="E9" s="3">
         <v>3520600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3503300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3595000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3640000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3794400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3383800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3526300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3561500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3520100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3231100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3232400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3226200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3299300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>504900</v>
+      </c>
+      <c r="E10" s="3">
         <v>733000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>447900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>415800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>360000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>470900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>529800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>445300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>377800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>445000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>423000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>360900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>395400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>436100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,28 +1005,31 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>198600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1026,8 +1046,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1035,55 +1055,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E15" s="3">
         <v>147900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>145200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>148800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>147900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>150700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>152500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>156900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>152900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>133800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>130000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>126400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>125300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>126500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3829200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3999300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3745100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3821900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3877200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3892000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3631100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3784900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3802800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3746100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3436200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3438600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3430200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3491300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-97600</v>
+      </c>
+      <c r="E18" s="3">
         <v>254300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>206100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>188900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>122800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>373300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>282500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>186700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>136500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>219000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>217900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>154700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>191400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>244100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,110 +1244,117 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-98500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-78300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-85600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-82300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-84200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-82900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-92500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-89800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-94100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-76300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-62600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-61500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-97600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-65700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E21" s="3">
         <v>323900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>265700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>255400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>186600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>441100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>342400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>253800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>195200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>276600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>285200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>219600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>219100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>304900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+      <c r="E22" s="3">
+        <v>1300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1331,8 +1371,8 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-197500</v>
+      </c>
+      <c r="E23" s="3">
         <v>174700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>120500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>106600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>38700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>290400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>189900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>96900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>42300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>142700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>155300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>93200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>93800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>178400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47400</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F24" s="3">
         <v>35100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>51000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>68300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>57800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>52900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>127300</v>
+        <v>-198300</v>
       </c>
       <c r="E26" s="3">
+        <v>145900</v>
+      </c>
+      <c r="F26" s="3">
         <v>85400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>83100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>239400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>121600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>72700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>51400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>84900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>113200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>65400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>70200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>125400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>127200</v>
+        <v>-198600</v>
       </c>
       <c r="E27" s="3">
+        <v>145800</v>
+      </c>
+      <c r="F27" s="3">
         <v>85600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>83000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>239400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>121500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>72600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>84800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>113100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>65300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>70200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>125300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,40 +1692,43 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>18600</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+        <v>-3700</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-900</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>11300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>54000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-23700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>207500</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E32" s="3">
         <v>78300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>85600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>82300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>84200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>82900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>92500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>89800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>94100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>76300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>62600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>61500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>97600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>65700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-202300</v>
+      </c>
+      <c r="E33" s="3">
         <v>145800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>85600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>83000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>250700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>175500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>72600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>292300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>113100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>65300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>70200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>125300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-202300</v>
+      </c>
+      <c r="E35" s="3">
         <v>145800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>85600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>83000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>250700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>175500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>72600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>292300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>113100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>65300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>70200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>125300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E38" s="2">
         <v>43826</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43644</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43553</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43462</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43371</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43280</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43189</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43098</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43007</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42734</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1203000</v>
+      </c>
+      <c r="E41" s="3">
         <v>264600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>246600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>220100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>195400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>249900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>215000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>166000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>185500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>185700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>238800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>154700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>145500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>147000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1851000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1971900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1807000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1832900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1878200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1880300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1790400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1851900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1875200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1813300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1616000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1532900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1508000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1492300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>403800</v>
+      </c>
+      <c r="E44" s="3">
         <v>397900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>411300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>393100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>400300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>371100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>724800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>705400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>718200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>614900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>610700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>567600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>571600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>563900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>198600</v>
+      </c>
+      <c r="E45" s="3">
         <v>194400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>193500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>196000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>156800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>148700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>171200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>186800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>197400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>198400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>187600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>209300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>169500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>170400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3656300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2828900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2658400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2642100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2630600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2650000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2901400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2910100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2976300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2812300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2653100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2464400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2394600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2373600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2709000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2720000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2181800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2143800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2142900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2153200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1378100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1321400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1356600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1035200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1042000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>981500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1004600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>997600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7305700</v>
+      </c>
+      <c r="E49" s="3">
         <v>7550800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7552400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7590900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7610200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7605500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7747400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7776800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7795000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7154600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5836300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5823900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5748700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5692600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1176400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1173300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1343800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1352700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1327100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1330300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1693200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1657300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1604800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1524700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1474700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1380500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1347500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1320200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14847500</v>
+      </c>
+      <c r="E54" s="3">
         <v>14273100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13736300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13729500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13710800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13738900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13720100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13665500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13732800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12526800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11006200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10650400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10495300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10383900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>785900</v>
+      </c>
+      <c r="E57" s="3">
         <v>855200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>999500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>819900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>911800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>866200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1018900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>846700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>840400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>833400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>955900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>728900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>803900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>702800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E58" s="3">
         <v>83000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>69900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>53700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>56300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>53400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>30900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>82000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>72500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>71200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>78200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>74200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>79600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>47600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1408600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1359300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1635900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1285700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1343000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1277700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1440300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1213900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1385200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1108000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1334000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1098800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1168400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1028800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2297900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2297500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2705300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2159400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2311100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2197300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2490200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2142600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2298100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2012600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2368100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1901900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2051900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1779200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7862600</v>
+      </c>
+      <c r="E61" s="3">
         <v>7087700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6612200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7198900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7134300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7323700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7213100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7788300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7749500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6976500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5190300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5440100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5214800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5364900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1517600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1436300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1098700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1085300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1031700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>987300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>888800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>889600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>815400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>988700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>985600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>988000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1001300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11678100</v>
+      </c>
+      <c r="E66" s="3">
         <v>10821500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10416300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10443600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10477100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10521000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10690500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10819800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10937100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9804400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8547200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8327600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8254600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8145400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>993000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1223100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1107000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1048600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>992700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>990400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>710500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>560900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>514100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>512300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>247100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>159200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>119700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>74700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3169400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3451600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3320000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3285900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3233700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3217900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3029600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2845800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2795600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2722400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2459100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2322800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2240700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2238500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E80" s="2">
         <v>43826</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43644</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43553</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43462</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43371</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43280</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43189</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43098</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43007</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42734</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-202300</v>
+      </c>
+      <c r="E81" s="3">
         <v>145800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>85600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>83000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>250700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>175500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>72600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>292300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>113100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>65300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>70200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>125300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E83" s="3">
         <v>147900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>145200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>148800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>147900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>150700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>152500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>156900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>152900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>133800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>130000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>126400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>125300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>126500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-309500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>776000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>119200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>292600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-203700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>901800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>121300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>335600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-311400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>604200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>454200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-114400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-99200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-162600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-110000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-116000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-114400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-195800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-184400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-129500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-118900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-212400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-125200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-108500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-106600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-109200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-87400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-160100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-107600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-136000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>194200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-193100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-195900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-224700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-177800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-169900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-106100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,16 +4614,17 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-27100</v>
       </c>
       <c r="F96" s="3">
         <v>-27100</v>
@@ -4399,10 +4633,10 @@
         <v>-27100</v>
       </c>
       <c r="H96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-25800</v>
       </c>
       <c r="J96" s="3">
         <v>-25800</v>
@@ -4414,22 +4648,25 @@
         <v>-25800</v>
       </c>
       <c r="M96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="N96" s="3">
         <v>-25300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-25200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-25100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,81 +4812,87 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>833700</v>
+      </c>
+      <c r="E100" s="3">
         <v>411600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-584200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-211500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>48100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-663800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>59100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>697700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1701100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-295400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>166000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-285800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>126500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3800</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>938300</v>
+      </c>
+      <c r="E102" s="3">
         <v>18000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-54500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>49100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-53100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>84100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-43900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E7" s="2">
         <v>43917</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43826</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43644</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43553</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43462</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43371</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43280</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43189</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43098</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43007</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42734</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2152300</v>
+      </c>
+      <c r="E8" s="3">
         <v>3731600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4253600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3951200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4010800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4000000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4265300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3913600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3971600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3939300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3965100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3654100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3593300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3621600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3735400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2208000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3226700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3520600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3503300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3595000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3640000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3794400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3383800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3526300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3561500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3520100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3231100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3232400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3226200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3299300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="E10" s="3">
         <v>504900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>733000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>447900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>415800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>360000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>470900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>529800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>445300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>377800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>445000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>423000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>360900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>395400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>436100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>198600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1049,8 +1069,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1058,58 +1078,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E15" s="3">
         <v>148000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>147900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>145200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>148800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>147900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>150700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>152500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>156900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>152900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>133800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>130000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>126400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>125300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>126500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2479900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3829200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3999300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3745100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3821900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3877200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3892000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3631100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3784900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3802800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3746100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3436200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3438600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3430200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3491300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-327600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-97600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>254300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>206100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>188900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>122800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>373300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>282500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>186700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>136500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>219000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>217900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>154700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>191400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>244100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,119 +1278,126 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-98500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-78300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-85600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-82300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-84200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-82900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-92500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-89800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-94100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-76300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-62600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-61500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-97600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-65700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-272400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-48200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>323900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>265700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>255400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>186600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>441100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>342400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>253800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>195200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>276600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>285200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>219600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>219100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>304900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>1300</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1374,8 +1414,8 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-421800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-197500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>174700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>120500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>106600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>38700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>290400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>189900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>96900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>42300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>142700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>155300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>93200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>93800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>178400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-97400</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>35100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>51000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>68300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>57800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>52900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-324400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-198300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>145900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>85400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>83100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>239400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>121600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>72700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>51400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>84900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>113200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>65400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>70200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>125400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-324500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-198600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>145800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>85600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>83000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>239400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>121500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>72600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>84800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>113100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>65300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>70200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>125300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,43 +1753,46 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3700</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>11300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>54000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-23700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>207500</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E32" s="3">
         <v>98500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>78300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>85600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>82300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>84200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>82900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>92500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>89800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>94100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>76300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>62600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>61500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>97600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>65700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-256400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-202300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>145800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>85600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>83000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>29400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>250700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>175500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>72600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>292300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>113100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>65300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>70200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>125300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-256400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-202300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>145800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>85600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>83000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>29400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>250700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>175500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>72600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>292300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>113100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>65300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>70200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>125300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E38" s="2">
         <v>43917</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43826</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43644</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43553</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43462</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43371</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43280</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43189</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43098</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43007</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42734</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2417300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1203000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>264600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>246600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>220100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>195400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>249900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>215000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>166000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>185500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>185700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>238800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>154700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>145500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>147000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1423200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1851000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1971900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1807000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1832900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1878200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1880300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1790400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1851900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1875200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1813300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1616000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1532900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1508000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1492300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>426800</v>
+      </c>
+      <c r="E44" s="3">
         <v>403800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>397900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>411300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>393100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>371100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>724800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>705400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>718200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>614900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>610700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>567600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>571600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>563900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>289900</v>
+      </c>
+      <c r="E45" s="3">
         <v>198600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>194400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>193500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>196000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>156800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>148700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>171200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>186800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>197400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>198400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>187600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>209300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>169500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>170400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4557100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3656300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2828900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2658400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2642100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2630600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2650000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2901400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2910100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2976300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2812300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2653100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2464400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2394600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2373600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2617400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2709000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2720000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2181800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2143800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2142900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2153200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1378100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1321400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1356600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1035200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1042000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>981500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1004600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>997600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7283100</v>
+      </c>
+      <c r="E49" s="3">
         <v>7305700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7550800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7552400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7590900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7610200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7605500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7747400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7776800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7795000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7154600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5836300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5823900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5748700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5692600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1164500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1176400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1173300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1343800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1352700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1327100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1330300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1693200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1657300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1604800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1524700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1474700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1380500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1347500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1320200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15622100</v>
+      </c>
+      <c r="E54" s="3">
         <v>14847500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14273100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13736300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13729500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13710800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13738900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13720100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13665500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13732800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12526800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11006200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10650400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10495300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10383900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>618100</v>
+      </c>
+      <c r="E57" s="3">
         <v>785900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>855200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>999500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>819900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>911800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>866200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1018900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>846700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>840400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>833400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>955900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>728900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>803900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>702800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E58" s="3">
         <v>103400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>83000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>69900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>53700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>56300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>53400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>30900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>82000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>72500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>71200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>78200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>74200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>79600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>47600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1411100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1408600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1359300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1635900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1285700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1343000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1277700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1440300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1213900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1385200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1108000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1334000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1098800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1168400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1028800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2119300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2297900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2297500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2705300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2159400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2311100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2197300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2490200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2142600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2298100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2012600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2368100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1901900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2051900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1779200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9169500</v>
+      </c>
+      <c r="E61" s="3">
         <v>7862600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7087700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6612200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7198900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7134300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7323700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7213100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7788300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7749500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6976500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5190300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5440100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5214800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5364900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1437900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1517600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1436300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1098700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1085300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1031700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>987300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>888800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>889600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>815400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>988700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>985600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>988000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1001300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12726700</v>
+      </c>
+      <c r="E66" s="3">
         <v>11678100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10821500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10416300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10443600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10477100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10521000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10690500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10819800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10937100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9804400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8547200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8327600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8254600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8145400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>708800</v>
+      </c>
+      <c r="E72" s="3">
         <v>993000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1223100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1107000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1048600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>992700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>990400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>710500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>560900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>514100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>512300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>247100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>159200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>119700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>74700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2895300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3169400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3451600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3320000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3285900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3233700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3217900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3029600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2845800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2795600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2722400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2459100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2322800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2240700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2238500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E80" s="2">
         <v>43917</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43826</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43644</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43553</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43462</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43371</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43280</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43189</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43098</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43007</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42734</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-256400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-202300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>145800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>85600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>83000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>29400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>250700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>175500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>72600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>292300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>113100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>65300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>70200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>125300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E83" s="3">
         <v>148000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>147900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>145200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>148800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>147900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>150700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>152500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>156900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>152900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>133800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>130000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>126400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>125300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>126500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E89" s="3">
         <v>217900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-309500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>776000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>119200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>292600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-203700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>901800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>121300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>335600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-311400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>604200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>454200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-26000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-114400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-99200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-162600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-110000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-116000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-114400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-195800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-184400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-129500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-118900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-212400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-125200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-108500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-106600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-109200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-87400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-160100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-107600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-136000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>194200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-193100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-195900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-224700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-177800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-169900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-106100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,10 +4858,10 @@
         <v>-27800</v>
       </c>
       <c r="E96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-27100</v>
       </c>
       <c r="G96" s="3">
         <v>-27100</v>
@@ -4636,10 +4870,10 @@
         <v>-27100</v>
       </c>
       <c r="I96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-25800</v>
       </c>
       <c r="K96" s="3">
         <v>-25800</v>
@@ -4651,22 +4885,25 @@
         <v>-25800</v>
       </c>
       <c r="N96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="O96" s="3">
         <v>-25300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-25200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-25200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,87 +5058,93 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1251000</v>
+      </c>
+      <c r="E100" s="3">
         <v>833700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>411600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-584200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-211500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>48100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-663800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>59100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>697700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1701100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-295400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>166000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-285800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>126500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3800</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1214300</v>
+      </c>
+      <c r="E102" s="3">
         <v>938300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-54500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>34900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>49100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-53100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>84100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-43900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,256 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E7" s="2">
         <v>44008</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43917</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43826</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43644</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43553</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43462</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43371</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43280</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43189</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43098</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43007</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42734</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2692200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2152300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3731600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4253600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3951200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4010800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4265300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3913600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3971600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3939300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3965100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3654100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3593300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3621600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3735400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2464300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2208000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3226700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3520600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3503300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3595000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3640000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3794400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3383800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3526300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3561500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3520100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3231100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3232400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3226200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3299300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E10" s="3">
         <v>-55700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>504900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>733000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>447900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>415800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>360000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>470900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>529800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>445300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>377800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>445000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>423000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>360900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>395400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>436100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,34 +1044,37 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>198600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1072,8 +1091,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1081,61 +1100,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>151200</v>
+      </c>
+      <c r="E15" s="3">
         <v>148100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>148000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>147900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>145200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>148800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>147900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>150700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>152500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>156900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>152900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>133800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>130000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>126400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>125300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>126500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2786100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2479900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3829200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3999300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3745100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3821900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3877200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3892000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3631100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3784900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3802800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3746100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3436200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3438600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3430200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3491300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-93900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-327600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-97600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>254300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>206100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>188900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>122800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>373300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>282500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>186700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>136500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>219000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>217900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>154700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>191400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>244100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,128 +1311,135 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-92900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-98500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-78300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-85600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-82300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-84200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-82900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-92500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-89800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-94100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-76300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-62600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-97600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-65700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-272400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-48200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>323900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>265700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>255400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>186600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>441100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>342400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>253800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>195200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>276600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>285200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>219600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>219100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>304900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+      <c r="G22" s="3">
+        <v>1300</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1417,8 +1456,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1438,114 +1477,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-203100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-421800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-197500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>174700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>120500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>106600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>38700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>290400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>189900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>96900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>42300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>142700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>155300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>93200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>93800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>178400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-97400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>51000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>68300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>57800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>27800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>52900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-148600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-324400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-198300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>145900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>85400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>83100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>239400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>121600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>72700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>51400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>84900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>113200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>65400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>70200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>125400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-148200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-324500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-198600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>145800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>85600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>83000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>239400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>121500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>72600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>51300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>84800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>113100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>65300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>70200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>125300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,46 +1813,49 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E29" s="3">
         <v>68100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-3700</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>11300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>54000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-23700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>207500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E32" s="3">
         <v>92900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>98500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>78300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>85600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>82300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>84200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>82900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>92500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>89800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>94100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>76300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>62600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>61500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>97600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>65700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-148600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-256400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-202300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>145800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>85600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>83000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>29400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>250700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>175500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>72600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>292300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>113100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>65300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>70200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>125300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-148600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-256400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-202300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>145800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>85600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>83000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>29400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>250700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>175500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>72600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>292300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>113100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>65300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>70200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>125300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E38" s="2">
         <v>44008</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43917</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43826</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43644</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43553</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43462</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43371</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43280</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43189</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43098</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43007</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42734</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2509200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2417300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1203000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>264600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>246600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>220100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>195400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>249900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>215000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>166000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>185500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>185700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>238800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>154700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>145500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>147000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2422,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1431200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1423200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1851000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1971900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1807000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1832900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1878200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1880300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1790400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1851900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1875200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1813300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1616000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1532900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1508000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1492300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>436500</v>
+      </c>
+      <c r="E44" s="3">
         <v>426800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>403800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>397900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>411300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>393100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>400300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>371100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>724800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>705400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>718200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>614900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>610700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>567600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>571600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>563900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>298900</v>
+      </c>
+      <c r="E45" s="3">
         <v>289900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>198600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>194400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>193500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>196000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>156800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>148700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>171200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>186800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>197400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>198400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>187600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>209300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>169500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>170400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4675800</v>
+      </c>
+      <c r="E46" s="3">
         <v>4557100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3656300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2828900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2658400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2642100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2630600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2650000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2901400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2910100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2976300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2812300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2653100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2464400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2394600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2373600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2702,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2602300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2617400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2709000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2720000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2181800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2143800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2142900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2153200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1378100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1321400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1356600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1035200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1042000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>981500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1004600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>997600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7276500</v>
+      </c>
+      <c r="E49" s="3">
         <v>7283100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7305700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7550800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7552400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7590900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7610200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7605500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7747400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7776800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7795000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7154600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5836300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5823900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5748700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5692600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1158100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1164500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1176400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1173300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1343800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1352700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1327100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1330300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1693200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1657300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1604800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1524700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1474700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1380500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1347500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1320200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15712700</v>
+      </c>
+      <c r="E54" s="3">
         <v>15622100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14847500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14273100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13736300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13729500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13710800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13738900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13720100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13665500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13732800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12526800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11006200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10650400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10495300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10383900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3140,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>663500</v>
+      </c>
+      <c r="E57" s="3">
         <v>618100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>785900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>855200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>999500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>819900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>911800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>866200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1018900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>846700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>840400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>833400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>955900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>728900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>803900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>702800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E58" s="3">
         <v>90100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>103400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>83000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>69900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>53700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>56300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>53400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>82000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>72500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>71200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>78200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>74200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>79600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>47600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1584100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1411100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1408600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1359300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1635900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1285700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1343000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1277700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1440300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1213900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1385200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1108000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1334000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1098800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1168400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1028800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2347500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2119300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2297900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2297500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2705300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2159400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2311100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2197300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2490200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2142600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2298100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2012600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2368100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1901900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2051900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1779200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9178500</v>
+      </c>
+      <c r="E61" s="3">
         <v>9169500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7862600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7087700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6612200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7198900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7134300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7323700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7213100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7788300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7749500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6976500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5190300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5440100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5214800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5364900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1437900</v>
+        <v>1440700</v>
       </c>
       <c r="E62" s="3">
-        <v>1517600</v>
+        <v>1427600</v>
       </c>
       <c r="F62" s="3">
-        <v>1436300</v>
+        <v>1507400</v>
       </c>
       <c r="G62" s="3">
-        <v>1098700</v>
+        <v>1426300</v>
       </c>
       <c r="H62" s="3">
-        <v>1085300</v>
+        <v>1088800</v>
       </c>
       <c r="I62" s="3">
-        <v>1031700</v>
+        <v>1075200</v>
       </c>
       <c r="J62" s="3">
+        <v>1021700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1000100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>987300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>888800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>889600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>815400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>988700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>985600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>988000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1001300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12976700</v>
+      </c>
+      <c r="E66" s="3">
         <v>12726700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11678100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10821500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10416300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10443600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10477100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10521000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10690500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10819800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10937100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9804400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8547200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8327600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8254600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8145400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>532400</v>
+      </c>
+      <c r="E72" s="3">
         <v>708800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>993000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1223100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1107000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1048600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>992700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>990400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>710500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>560900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>514100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>512300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>247100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>159200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>119700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>74700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2736000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2895300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3169400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3451600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3320000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3285900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3233700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3217900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3029600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2845800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2795600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2722400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2459100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2322800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2240700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2238500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44106</v>
+      </c>
+      <c r="E80" s="2">
         <v>44008</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43917</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43826</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43644</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43553</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43462</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43371</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43280</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43189</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43098</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43007</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42734</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-148600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-256400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-202300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>145800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>85600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>83000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>29400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>250700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>175500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>72600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>292300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>113100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>65300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>70200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>125300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>151200</v>
+      </c>
+      <c r="E83" s="3">
         <v>148100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>148000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>147900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>145200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>148800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>147900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>150700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>152500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>156900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>152900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>133800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>130000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>126400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>125300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>126500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>251500</v>
+      </c>
+      <c r="E89" s="3">
         <v>16800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>217900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-309500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>776000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>119200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>292600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-203700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>901800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>121300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>335600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-311400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>604200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>454200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-26000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-119800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-85100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-114400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-99200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-162600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-110000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-116000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-114400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-195800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-184400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-129500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-118900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-212400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-125200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-108500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-106600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-109800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-54700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-109200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-87400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-160100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-107600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-136000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>194200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-193100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-195900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-224700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-177800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-169900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-106100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,10 +5094,10 @@
         <v>-27800</v>
       </c>
       <c r="F96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-27100</v>
       </c>
       <c r="H96" s="3">
         <v>-27100</v>
@@ -4873,10 +5106,10 @@
         <v>-27100</v>
       </c>
       <c r="J96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-25800</v>
       </c>
       <c r="L96" s="3">
         <v>-25800</v>
@@ -4888,22 +5121,25 @@
         <v>-25800</v>
       </c>
       <c r="O96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="P96" s="3">
         <v>-25300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-25100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-25200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,93 +5303,99 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1251000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>833700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>411600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-584200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-211500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>48100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-663800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>59100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>697700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1701100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-295400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>166000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-285800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>126500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3800</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5167,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1214300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>938300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-54500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>34900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-53100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>84100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-43900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E7" s="2">
         <v>44106</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43917</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43826</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43644</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43553</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43462</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43371</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43280</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43189</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43098</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43007</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42734</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2743800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2692200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2152300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3731600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4253600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3951200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4010800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4265300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3913600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3971600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3939300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3965100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3654100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3593300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3621600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3735400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2537500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2464300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2208000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3226700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3520600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3503300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3595000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3640000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3794400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3383800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3526300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3561500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3520100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3231100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3232400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3226200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3299300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>206300</v>
+      </c>
+      <c r="E10" s="3">
         <v>227900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-55700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>504900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>733000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>447900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>415800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>360000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>470900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>529800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>445300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>377800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>445000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>423000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>360900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>395400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>436100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,37 +1063,40 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>-1900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>198600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1094,8 +1113,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1103,64 +1122,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E15" s="3">
         <v>151200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>148100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>148000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>147900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>145200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>148800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>147900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>150700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>152500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>156900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>152900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>133800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>130000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>126400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>125300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>126500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2764300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2786100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2479900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3829200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3999300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3745100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3821900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3877200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3892000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3631100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3784900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3802800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3746100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3436200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3438600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3430200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3491300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-93900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-327600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-97600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>254300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>206100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>188900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>122800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>373300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>282500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>186700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>136500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>219000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>217900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>154700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>191400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>244100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,137 +1344,144 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-107900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-92900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-98500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-78300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-85600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-82300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-84200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-82900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-92500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-89800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-94100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-76300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-62600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-61500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-97600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-65700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-50500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-272400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-48200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>323900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>265700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>255400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>186600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>441100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>342400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>253800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>195200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>276600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>285200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>219600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>219100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>304900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1300</v>
       </c>
       <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>1300</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1459,8 +1498,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1480,120 +1519,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-203100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-421800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-197500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>174700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>120500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>106600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>38700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>290400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>189900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>96900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>42300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>142700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>155300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>93200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>93800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>178400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-54500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-97400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>68300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-9100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>57800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>42100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>52900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-148600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-324400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-198300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>145900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>85400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>83100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>30200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>239400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>121600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>72700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>84900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>113200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>65400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>70200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>125400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-103400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-148200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-324500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-198600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>145800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>85600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>83000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>239400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>121500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>72600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>84800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>113100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>65300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>70200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>125300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,49 +1873,52 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E29" s="3">
         <v>-400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>68100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-3700</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>11300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>54000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-23700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>207500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E32" s="3">
         <v>107900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>92900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>98500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>78300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>85600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>82300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>84200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>82900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>92500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>89800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>94100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>76300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>62600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>61500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>97600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>65700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-148600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-256400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-202300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>145800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>85600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>83000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>29400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>250700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>175500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>72600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>292300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>113100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>65300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>70200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>125300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-148600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-256400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-202300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>145800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>85600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>83000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>29400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>250700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>175500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>72600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>292300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>113100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>65300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>70200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>125300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E38" s="2">
         <v>44106</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43917</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43826</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43644</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43553</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43462</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43371</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43280</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43189</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43098</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43007</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42734</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2398,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1166200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2509200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2417300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1203000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>264600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>246600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>220100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>195400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>249900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>215000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>166000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>185500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>185700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>238800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>154700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>145500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>147000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,232 +2514,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1511100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1431200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1423200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1851000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1971900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1807000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1832900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1878200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1880300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1790400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1851900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1875200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1813300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1616000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1532900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1508000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1492300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>427200</v>
+      </c>
+      <c r="E44" s="3">
         <v>436500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>426800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>403800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>397900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>411300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>393100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>400300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>371100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>724800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>705400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>718200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>614900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>610700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>567600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>571600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>563900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>311600</v>
+      </c>
+      <c r="E45" s="3">
         <v>298900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>289900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>198600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>194400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>193500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>196000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>156800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>148700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>171200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>186800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>197400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>198400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>187600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>209300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>169500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>170400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3416100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4675800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4557100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3656300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2828900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2658400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2642100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2630600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2650000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2901400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2910100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2976300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2812300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2653100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2464400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2394600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2373600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,120 +2809,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2592400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2602300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2617400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2709000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2720000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2181800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2143800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2142900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2153200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1378100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1321400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1356600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1035200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1042000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>981500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1004600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>997600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7303800</v>
+      </c>
+      <c r="E49" s="3">
         <v>7276500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7283100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7305700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7550800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7552400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7590900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7610200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7605500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7747400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7776800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7795000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7154600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5836300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5823900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5748700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5692600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1193900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1158100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1164500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1176400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1173300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1343800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1352700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1327100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1330300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1693200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1657300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1604800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1524700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1474700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1380500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1347500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1320200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14506200</v>
+      </c>
+      <c r="E54" s="3">
         <v>15712700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15622100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14847500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14273100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13736300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13729500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13710800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13738900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13720100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13665500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13732800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12526800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11006200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10650400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10495300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10383900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,344 +3270,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>644300</v>
+      </c>
+      <c r="E57" s="3">
         <v>663500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>618100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>785900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>855200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>999500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>819900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>911800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>866200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1018900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>846700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>840400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>833400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>955900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>728900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>803900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>702800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E58" s="3">
         <v>99900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>90100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>103400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>83000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>69900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>53700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>56300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>53400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>30900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>82000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>72500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>71200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>78200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>74200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>79600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>47600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1534000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1584100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1411100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1408600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1359300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1635900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1285700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1343000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1277700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1440300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1213900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1385200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1108000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1334000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1098800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1168400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1028800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2276600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2347500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2119300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2297900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2297500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2705300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2159400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2311100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2197300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2490200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2142600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2298100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2012600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2368100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1901900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2051900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1779200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8111100</v>
+      </c>
+      <c r="E61" s="3">
         <v>9178500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9169500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7862600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7087700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6612200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7198900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7134300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7323700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7213100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7788300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7749500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6976500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5190300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5440100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5214800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5364900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1431500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1440700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1427600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1507400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1426300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1088800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1075200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1021700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>987300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>888800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>889600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>815400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>988700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>985600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>988000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1001300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11829100</v>
+      </c>
+      <c r="E66" s="3">
         <v>12976700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12726700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11678100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10821500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10416300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10443600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10477100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10521000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10690500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10819800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10937100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9804400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8547200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8327600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8254600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8145400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>421200</v>
+      </c>
+      <c r="E72" s="3">
         <v>532400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>708800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>993000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1223100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1107000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1048600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>992700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>990400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>710500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>560900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>514100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>512300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>247100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>159200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>119700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>74700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2677100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2736000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2895300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3169400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3451600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3320000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3285900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3233700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3217900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3029600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2845800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2795600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2722400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2459100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2322800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2240700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2238500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E80" s="2">
         <v>44106</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43917</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43826</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43644</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43553</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43462</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43371</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43280</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43189</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43098</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43007</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42734</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-148600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-256400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-202300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>145800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>85600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>83000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>29400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>250700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>175500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>72600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>292300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>113100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>65300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>70200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>125300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E83" s="3">
         <v>151200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>148100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>148000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>147900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>145200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>148800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>147900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>150700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>152500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>156900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>152900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>133800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>130000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>126400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>125300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>126500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="E89" s="3">
         <v>251500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>217900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-309500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>776000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>119200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>292600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-203700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>901800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>121300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>335600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-311400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>604200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>454200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-26000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-119800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-85100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-114400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-99200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-162600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-110000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-116000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-114400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-195800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-184400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-129500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-118900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-212400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-125200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-108500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-106600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-90800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-109800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-109200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-87400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-160100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-107600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-136000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>194200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-193100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-195900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-224700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-177800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-169900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-106100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,13 +5314,14 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-27800</v>
+        <v>-27900</v>
       </c>
       <c r="E96" s="3">
         <v>-27800</v>
@@ -5097,10 +5330,10 @@
         <v>-27800</v>
       </c>
       <c r="G96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="H96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-27100</v>
       </c>
       <c r="I96" s="3">
         <v>-27100</v>
@@ -5109,10 +5342,10 @@
         <v>-27100</v>
       </c>
       <c r="K96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-25800</v>
       </c>
       <c r="M96" s="3">
         <v>-25800</v>
@@ -5124,22 +5357,25 @@
         <v>-25800</v>
       </c>
       <c r="P96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-25200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-25100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-25200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,99 +5548,105 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1148200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-58700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1251000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>833700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>411600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-584200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-211500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-663800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>59100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>697700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1701100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-295400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>166000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-285800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>126500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E101" s="3">
         <v>8900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3800</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5418,60 +5666,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1343000</v>
+      </c>
+      <c r="E102" s="3">
         <v>91900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1214300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>938300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>26600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>24700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-54500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>49100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-53100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>84100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-43900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,280 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E7" s="2">
         <v>44197</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44106</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43917</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43826</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43644</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43553</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43462</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43371</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43280</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43189</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43098</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43007</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42734</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2819700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2743800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2692200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2152300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3731600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4253600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3951200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4010800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4265300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3913600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3971600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3939300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3965100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3654100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3593300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3621600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3735400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2594200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2537500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2464300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2208000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3226700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3520600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3503300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3595000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3640000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3794400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3383800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3526300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3561500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3520100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3231100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3232400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3226200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3299300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E10" s="3">
         <v>206300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>227900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-55700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>504900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>733000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>447900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>415800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>360000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>470900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>529800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>445300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>377800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>445000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>423000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>360900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>395400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>436100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,8 +960,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,40 +1082,43 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>198600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1116,8 +1135,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1125,67 +1144,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E15" s="3">
         <v>138600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>151200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>148100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>148000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>147900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>145200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>148800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>147900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>150700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>152500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>156900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>152900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>133800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>130000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>126400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>125300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>126500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1229,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2814300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2764300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2786100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2479900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3829200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3999300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3745100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3821900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3877200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3892000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3631100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3784900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3802800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3746100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3436200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3438600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3430200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3491300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-20500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-93900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-327600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-97600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>254300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>206100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>188900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>122800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>373300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>282500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>186700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>136500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>219000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>217900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>154700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>191400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>244100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,146 +1377,153 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-107900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-92900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-98500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-78300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-85600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-82300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-84200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-82900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-92500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-89800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-94100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-76300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-62600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-61500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-97600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-65700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E21" s="3">
         <v>17700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-50500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-272400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-48200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>323900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>265700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>255400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>186600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>441100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>342400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>253800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>195200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>276600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>285200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>219600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>219100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>304900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1300</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="I22" s="3">
+        <v>1300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1501,8 +1540,8 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1522,126 +1561,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-90900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-120900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-203100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-421800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-197500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>174700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>120500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>106600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>38700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>290400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>189900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>96900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>42300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>142700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>155300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>93200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>93800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>178400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-17300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-54500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-97400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>51000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>68300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-9100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>57800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>42100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>52900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1747,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-103600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-148600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-324400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-198300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>145900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>85400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>83100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>239400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>121600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>72700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>84900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>113200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>65400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>70200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>125400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-103400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-148200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-324500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-198600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>145800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>85600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>83000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>239400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>121500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>72600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>84800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>113100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>65300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>70200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>125300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,52 +1933,55 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E29" s="3">
         <v>22200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>68100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-3700</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>11300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>54000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-23700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>207500</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1935,8 +1995,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2119,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E32" s="3">
         <v>100400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>107900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>92900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>98500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>78300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>85600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>82300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>84200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>82900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>92500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>89800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>94100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>76300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>62600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>61500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>97600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>65700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-81200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-148600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-256400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-202300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>145800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>85600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>83000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>29400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>250700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>175500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>72600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>27600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>292300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>113100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>65300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>70200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>125300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2305,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-81200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-148600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-256400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-202300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>145800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>85600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>83000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>29400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>250700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>175500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>72600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>27600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>292300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>113100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>65300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>70200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>125300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E38" s="2">
         <v>44197</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44106</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43917</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43826</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43644</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43553</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43462</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43371</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43280</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43189</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43098</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43007</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42734</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,67 +2484,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1166200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2509200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2417300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1203000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>264600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>246600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>220100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>195400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>249900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>215000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>166000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>185500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>185700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>238800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>154700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>145500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>147000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,244 +2606,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1466100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1511100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1431200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1423200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1851000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1971900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1807000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1832900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1878200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1880300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1790400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1851900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1875200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1813300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1616000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1532900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1508000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1492300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>424500</v>
+      </c>
+      <c r="E44" s="3">
         <v>427200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>436500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>426800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>403800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>397900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>411300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>393100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>371100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>724800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>705400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>718200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>614900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>610700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>567600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>571600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>563900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>215900</v>
+      </c>
+      <c r="E45" s="3">
         <v>311600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>298900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>289900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>198600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>194400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>193500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>196000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>156800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>148700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>171200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>186800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>197400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>198400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>187600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>209300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>169500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>170400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3506500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3416100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4675800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4557100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3656300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2828900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2658400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2642100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2630600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2650000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2901400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2910100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2976300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2812300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2653100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2464400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2394600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2373600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2812,126 +2916,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2552300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2592400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2602300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2617400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2709000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2720000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2181800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2143800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2142900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2153200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1378100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1321400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1356600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1035200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1042000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>981500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1004600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>997600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7274000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7303800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7276500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7283100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7305700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7550800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7552400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7590900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7610200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7605500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7747400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7776800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7795000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7154600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5836300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5823900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5748700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5692600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,67 +3164,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1154800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1193900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1158100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1164500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1176400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1173300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1343800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1352700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1327100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1330300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1693200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1657300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1604800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1524700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1474700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1380500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1347500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1320200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3288,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14487700</v>
+      </c>
+      <c r="E54" s="3">
         <v>14506200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15712700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15622100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14847500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14273100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13736300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13729500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13710800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13738900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13720100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13665500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13732800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12526800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11006200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10650400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10495300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10383900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,362 +3400,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>684900</v>
+      </c>
+      <c r="E57" s="3">
         <v>644300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>663500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>618100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>785900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>855200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>999500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>819900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>911800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>866200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1018900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>846700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>840400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>833400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>955900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>728900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>803900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>702800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E58" s="3">
         <v>98300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>99900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>90100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>103400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>83000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>69900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>53700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>56300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>53400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>30900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>82000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>72500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>71200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>78200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>74200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>79600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>47600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1631500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1534000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1584100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1411100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1408600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1359300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1635900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1285700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1343000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1277700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1440300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1213900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1385200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1108000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1334000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1098800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1168400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1028800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2397200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2276600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2347500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2119300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2297900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2297500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2705300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2159400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2311100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2197300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2490200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2142600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2298100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2012600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2368100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1901900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2051900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1779200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8105600</v>
+      </c>
+      <c r="E61" s="3">
         <v>8111100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9178500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9169500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7862600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7087700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6612200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7198900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7134300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7323700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7213100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7788300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7749500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6976500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5190300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5440100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5214800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5364900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1351600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1431500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1440700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1427600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1507400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1426300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1088800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1075200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1021700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>987300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>888800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>889600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>815400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>988700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>985600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>988000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1001300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3956,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11864100</v>
+      </c>
+      <c r="E66" s="3">
         <v>11829100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12976700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12726700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11678100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10821500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10416300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10443600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10477100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10521000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10690500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10819800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10937100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9804400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8547200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8327600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8254600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8145400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4290,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>315700</v>
+      </c>
+      <c r="E72" s="3">
         <v>421200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>532400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>708800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>993000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1223100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1107000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1048600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>992700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>990400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>710500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>560900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>514100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>512300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>247100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>159200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>119700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>74700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4538,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2623500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2677100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2736000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2895300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3169400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3451600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3320000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3285900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3233700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3217900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3029600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2845800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2795600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2722400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2459100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2322800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2240700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2238500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4662,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E80" s="2">
         <v>44197</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44106</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43917</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43826</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43644</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43553</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43462</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43371</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43280</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43189</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43098</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43007</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42734</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-81200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-148600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-256400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-202300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>145800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>85600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>83000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>29400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>250700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>175500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>72600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>27600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>292300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>113100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>65300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>70200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>125300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4817,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E83" s="3">
         <v>138600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>151200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>148100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>148000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>147900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>145200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>148800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>147900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>150700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>152500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>156900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>152900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>133800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>130000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>126400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>125300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>126500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5187,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-115200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>251500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>217900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-309500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>776000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>119200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>292600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-203700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>901800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>121300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>335600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-311400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>604200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>454200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-26000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5275,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-119800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-85100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-114400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-99200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-162600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-110000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-116000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-114400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-195800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-184400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-129500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-118900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-212400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-125200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-108500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-106600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5459,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-90800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-109800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-109200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-87400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-160100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-107600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-136000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>194200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-193100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-195900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-224700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-177800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-169900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-106100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,16 +5547,17 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-27900</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-27800</v>
       </c>
       <c r="F96" s="3">
         <v>-27800</v>
@@ -5333,10 +5566,10 @@
         <v>-27800</v>
       </c>
       <c r="H96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-27100</v>
       </c>
       <c r="J96" s="3">
         <v>-27100</v>
@@ -5345,10 +5578,10 @@
         <v>-27100</v>
       </c>
       <c r="L96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-25800</v>
       </c>
       <c r="N96" s="3">
         <v>-25800</v>
@@ -5360,22 +5593,25 @@
         <v>-25800</v>
       </c>
       <c r="Q96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="R96" s="3">
         <v>-25300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-25200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-25100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-25200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,105 +5793,111 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1148200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-58700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1251000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>833700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>411600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-584200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>12700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-211500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-663800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>59100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>697700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1701100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-295400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>166000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-285800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>126500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E101" s="3">
         <v>11100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3800</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5669,63 +5917,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>233800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>91900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1214300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>938300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>24700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-54500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>49100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-53100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>84100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-43900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,280 +665,292 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E7" s="2">
         <v>44288</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44197</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44106</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43917</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43826</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43644</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43553</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43462</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43371</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43280</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43189</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43098</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43007</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42734</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2981200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2819700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2743800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2692200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2152300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3731600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4253600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3951200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4010800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4000000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4265300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3913600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3971600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3939300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3965100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3654100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3593300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3621600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3735400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2691100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2594200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2537500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2464300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2208000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3226700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3520600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3503300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3595000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3640000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3794400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3383800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3526300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3561500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3520100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3231100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3232400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3226200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3299300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>290100</v>
+      </c>
+      <c r="E10" s="3">
         <v>225500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>206300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>227900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-55700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>504900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>733000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>447900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>415800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>360000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>470900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>529800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>445300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>377800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>445000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>423000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>360900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>395400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>436100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,8 +973,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1023,8 +1036,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,43 +1101,46 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>198600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1138,8 +1157,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1147,70 +1166,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>136200</v>
+      </c>
+      <c r="E15" s="3">
         <v>137300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>138600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>151200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>148100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>148000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>147900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>145200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>148800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>147900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>150700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>152500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>156900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>152900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>133800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>130000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>126400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>125300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>126500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,132 +1255,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2967800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2814300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2764300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2786100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2479900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3829200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3999300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3745100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3821900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3877200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3892000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3631100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3784900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3802800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3746100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3436200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3438600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3430200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3491300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E18" s="3">
         <v>5400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-20500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-93900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-327600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-97600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>254300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>206100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>188900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>122800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>373300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>282500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>186700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>136500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>219000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>217900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>154700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>191400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>244100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,132 +1410,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-96300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-107900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-92900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-98500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-78300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-85600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-82300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-84200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-82900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-92500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-89800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-94100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-76300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-62600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-61500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-97600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-65700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E21" s="3">
         <v>46400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-50500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-272400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-48200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>323900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>265700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>255400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>186600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>441100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>342400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>253800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>195200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>276600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>285200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>219600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>219100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>304900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,20 +1552,20 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1300</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>1300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1543,8 +1582,8 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1564,132 +1603,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-90900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-120900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-203100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-421800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-197500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>174700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>120500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>106600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>38700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>290400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>189900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>96900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>42300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>142700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>155300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>93200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>93800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>178400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-17300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-54500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-97400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>51000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>68300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>57800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>42100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>23600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>52900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,132 +1798,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-89800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-103600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-148600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-324400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-198300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>145900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>85400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>83100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>239400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>121600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>72700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>51400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>84900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>113200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>65400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>70200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>125400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-89700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-103400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-148200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-324500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-198600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>145800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>85600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>83000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>239400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>121500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>72600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>51300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>84800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>113100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>65300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>70200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>125300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,55 +1993,58 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E29" s="3">
         <v>12100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>22200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>68100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-3700</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>11300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>54000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>207500</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1998,8 +2058,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2123,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,132 +2188,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E32" s="3">
         <v>96300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>107900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>92900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>98500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>78300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>85600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>82300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>84200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>82900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>92500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>89800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>94100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>76300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>62600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>61500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>97600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>65700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-77600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-81200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-148600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-256400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-202300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>145800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>85600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>83000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>29400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>250700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>175500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>72600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>292300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>113100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>65300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>70200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>125300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,137 +2383,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-77600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-81200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-148600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-256400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-202300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>145800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>85600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>83000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>29400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>250700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>175500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>72600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>292300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>113100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>65300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>70200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>125300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E38" s="2">
         <v>44288</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44197</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44106</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43917</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43826</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43644</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43553</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43462</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43371</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43280</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43189</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43098</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43007</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42734</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2545,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,70 +2570,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>483400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1166200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2509200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2417300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1203000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>264600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>246600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>220100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>195400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>249900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>215000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>166000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>185500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>185700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>238800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>154700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>145500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>147000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,256 +2698,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1532900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1466100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1511100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1431200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1423200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1851000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1971900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1807000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1832900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1878200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1880300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1790400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1851900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1875200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1813300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1616000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1532900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1508000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1492300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>402900</v>
+      </c>
+      <c r="E44" s="3">
         <v>424500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>427200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>436500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>426800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>403800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>397900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>411300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>393100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>400300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>371100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>724800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>705400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>718200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>614900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>610700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>567600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>571600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>563900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>201700</v>
+      </c>
+      <c r="E45" s="3">
         <v>215900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>311600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>298900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>289900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>198600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>194400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>193500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>196000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>156800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>148700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>171200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>186800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>197400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>198400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>187600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>209300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>169500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>170400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2620900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3506500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3416100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4675800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4557100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3656300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2828900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2658400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2642100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2630600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2650000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2901400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2910100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2976300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2812300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2653100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2464400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2394600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2373600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2919,132 +3023,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2567400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2552300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2592400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2602300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2617400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2709000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2720000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2181800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2143800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2142900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2153200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1378100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1321400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1356600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1035200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1042000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>981500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1004600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>997600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7558900</v>
+      </c>
+      <c r="E49" s="3">
         <v>7274000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7303800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7276500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7283100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7305700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7550800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7552400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7590900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7610200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7605500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7747400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7776800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7795000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7154600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5836300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5823900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5748700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5692600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3218,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,70 +3283,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1302900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1154800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1193900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1158100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1164500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1176400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1173300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1343800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1352700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1327100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1330300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1693200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1657300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1604800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1524700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1474700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1380500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1347500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1320200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,70 +3413,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14050100</v>
+      </c>
+      <c r="E54" s="3">
         <v>14487700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14506200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15712700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15622100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14847500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14273100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13736300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13729500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13710800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13738900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13720100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13665500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13732800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12526800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11006200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10650400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10495300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10383900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3505,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,380 +3530,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>675600</v>
+      </c>
+      <c r="E57" s="3">
         <v>684900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>644300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>663500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>618100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>785900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>855200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>999500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>819900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>911800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>866200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1018900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>846700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>840400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>833400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>955900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>728900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>803900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>702800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E58" s="3">
         <v>80800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>98300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>99900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>90100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>103400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>83000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>69900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>53700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>56300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>53400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>82000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>72500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>71200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>78200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>74200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>79600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>47600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1592500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1631500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1534000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1584100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1411100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1408600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1359300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1635900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1285700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1343000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1277700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1440300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1213900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1385200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1108000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1334000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1098800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1168400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1028800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2342200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2397200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2276600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2347500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2119300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2297900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2297500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2705300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2159400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2311100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2197300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2490200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2142600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2298100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2012600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2368100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1901900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2051900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1779200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7591800</v>
+      </c>
+      <c r="E61" s="3">
         <v>8105600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8111100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9178500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9169500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7862600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7087700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6612200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7198900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7134300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7323700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7213100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7788300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7749500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6976500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5190300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5440100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5214800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5364900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1420100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1351600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1431500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1440700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1427600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1507400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1426300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1088800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1075200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1021700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1000100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>987300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>888800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>889600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>815400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>988700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>985600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>988000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1001300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3983,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4048,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,70 +4113,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11363900</v>
+      </c>
+      <c r="E66" s="3">
         <v>11864100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11829100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12976700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12726700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11678100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10821500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10416300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10443600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10477100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10521000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10690500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10819800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10937100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9804400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8547200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8327600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8254600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8145400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4205,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4268,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4333,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4398,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,70 +4463,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>320200</v>
+      </c>
+      <c r="E72" s="3">
         <v>315700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>421200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>532400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>708800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>993000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1223100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1107000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1048600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>992700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>990400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>710500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>560900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>514100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>512300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>247100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>159200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>119700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>74700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4593,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4658,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,70 +4723,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2686200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2623500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2677100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2736000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2895300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3169400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3451600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3320000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3285900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3233700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3217900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3029600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2845800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2795600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2722400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2459100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2322800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2240700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2238500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,137 +4853,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E80" s="2">
         <v>44288</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44197</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44106</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43917</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43826</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43644</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43553</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43462</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43371</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43280</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43189</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43098</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43007</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42734</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-77600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-81200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-148600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-256400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-202300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>145800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>85600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>83000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>29400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>250700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>175500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>72600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>292300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>113100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>65300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>70200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>125300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,70 +5015,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>136200</v>
+      </c>
+      <c r="E83" s="3">
         <v>137300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>138600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>151200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>148100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>148000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>147900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>145200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>148800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>147900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>150700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>152500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>156900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>152900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>133800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>130000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>126400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>125300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>126500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5143,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5208,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5273,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5338,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,70 +5403,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E89" s="3">
         <v>337000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-115200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>251500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>217900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-309500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>776000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>119200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>292600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-203700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>901800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>121300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>335600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-311400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>604200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>21000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>454200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-26000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,70 +5495,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-79100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-69200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-119800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-85100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-114400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-99200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-162600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-110000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-116000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-114400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-195800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-184400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-129500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-118900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-212400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-125200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-108500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-106600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5623,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,70 +5688,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-327500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-84900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-90800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-109800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-109200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-87400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-160100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-107600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-136000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>194200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-193100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-195900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-224700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-177800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-169900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-106100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,19 +5780,20 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-28000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-27900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-27800</v>
       </c>
       <c r="G96" s="3">
         <v>-27800</v>
@@ -5569,10 +5802,10 @@
         <v>-27800</v>
       </c>
       <c r="I96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-27100</v>
       </c>
       <c r="K96" s="3">
         <v>-27100</v>
@@ -5581,10 +5814,10 @@
         <v>-27100</v>
       </c>
       <c r="M96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-25800</v>
       </c>
       <c r="O96" s="3">
         <v>-25800</v>
@@ -5596,22 +5829,25 @@
         <v>-25800</v>
       </c>
       <c r="R96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="S96" s="3">
         <v>-25300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-25200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-25100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-25200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5908,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5973,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,111 +6038,117 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-603300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1148200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-58700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1251000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>833700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>411600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-584200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-211500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>48100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-663800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>59100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>697700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1701100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-295400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>166000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-285800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>126500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>11100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3800</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5920,66 +6168,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-916600</v>
+      </c>
+      <c r="E102" s="3">
         <v>233800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>91900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1214300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>938300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-54500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>34900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>49100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-53100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>84100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-43900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,292 +665,304 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E7" s="2">
         <v>44379</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44288</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44197</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44106</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43917</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43826</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43644</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43553</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43462</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43371</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43280</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43189</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43098</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43007</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42734</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3551300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2981200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2819700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2743800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2692200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2152300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3731600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4253600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3951200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4010800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4265300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3913600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3971600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3939300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3965100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3654100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3593300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3621600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3735400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3197200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2691100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2594200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2537500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2464300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2208000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3226700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3520600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3503300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3595000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3640000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3794400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3383800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3526300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3561500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3520100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3231100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3232400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3226200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3299300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>354100</v>
+      </c>
+      <c r="E10" s="3">
         <v>290100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>225500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>206300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>227900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-55700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>504900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>733000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>447900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>415800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>360000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>470900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>529800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>445300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>377800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>445000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>423000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>360900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>395400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>436100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +986,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1039,8 +1052,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,46 +1120,49 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E14" s="3">
         <v>55900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>198600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1160,8 +1179,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1169,73 +1188,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E15" s="3">
         <v>136200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>137300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>138600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>151200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>148100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>148000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>147900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>145200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>148800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>147900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>150700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>152500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>156900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>152900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>133800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>130000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>126400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>125300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>126500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1256,138 +1281,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3418900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2967800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2814300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2764300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2786100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2479900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3829200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3999300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3745100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3821900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3877200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3892000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3631100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3784900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3802800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3746100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3436200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3438600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3430200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3491300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E18" s="3">
         <v>13400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-93900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-327600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-97600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>254300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>206100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>188900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>122800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>373300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>282500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>186700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>136500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>219000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>217900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>154700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>191400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>244100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1411,138 +1443,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E20" s="3">
         <v>26200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-96300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-107900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-92900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-98500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-78300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-85600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-82300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-84200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-82900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-92500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-89800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-94100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-76300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-62600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-61500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-97600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-65700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E21" s="3">
         <v>175800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>46400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-50500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-272400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-48200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>323900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>265700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>255400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>186600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>441100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>342400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>253800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>195200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>276600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>285200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>219600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>219100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>304900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,20 +1594,20 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1300</v>
       </c>
       <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>1300</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1585,8 +1624,8 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1606,138 +1645,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E23" s="3">
         <v>39600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-90900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-120900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-203100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-421800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-197500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>174700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>120500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>106600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>38700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>290400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>189900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>96900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>42300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>142700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>155300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>93200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>93800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>178400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E24" s="3">
         <v>10800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-17300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-54500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-97400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>68300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>57800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>42100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>27800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>52900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1801,138 +1849,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E26" s="3">
         <v>28800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-89800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-103600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-148600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-324400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-198300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>145900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>85400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>83100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>239400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>121600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>72700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>51400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>84900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>113200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>65400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>70200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>125400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E27" s="3">
         <v>28800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-89700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-103400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-148200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-324500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-198600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>145800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>85600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>83000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>239400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>121500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>72600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>51300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>84800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>113100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>65300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>70200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>125300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1996,58 +2053,61 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E29" s="3">
         <v>3800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>12100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>22200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>68100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-3700</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>11300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>54000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-23700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>207500</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2061,8 +2121,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2126,8 +2189,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2191,138 +2257,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-26200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>96300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>107900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>92900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>98500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>78300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>85600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>82300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>84200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>82900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>92500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>89800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>94100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>76300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>62600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>61500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>97600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>65700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E33" s="3">
         <v>32600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-77600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-81200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-148600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-256400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-202300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>145800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>85600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>83000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>29400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>250700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>175500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>72600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>292300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>113100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>65300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>70200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>125300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2386,143 +2461,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E35" s="3">
         <v>32600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-77600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-81200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-148600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-256400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-202300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>145800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>85600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>83000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>29400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>250700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>175500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>72600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>292300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>113100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>65300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>70200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>125300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E38" s="2">
         <v>44379</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44288</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44197</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44106</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43917</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43826</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43644</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43553</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43462</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43371</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43280</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43189</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43098</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43007</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42734</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2546,8 +2630,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2571,73 +2656,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>532600</v>
+      </c>
+      <c r="E41" s="3">
         <v>483400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1166200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2509200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2417300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1203000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>264600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>246600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>220100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>195400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>249900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>215000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>166000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>185500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>185700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>238800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>154700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>145500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>147000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2701,268 +2790,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1748600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1532900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1466100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1511100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1431200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1423200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1851000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1971900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1807000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1832900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1878200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1880300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1790400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1851900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1875200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1813300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1616000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1532900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1508000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1492300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>412700</v>
+      </c>
+      <c r="E44" s="3">
         <v>402900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>424500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>427200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>436500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>426800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>403800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>397900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>411300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>393100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>400300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>371100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>724800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>705400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>718200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>614900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>610700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>567600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>571600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>563900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E45" s="3">
         <v>201700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>215900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>311600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>298900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>289900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>198600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>194400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>193500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>196000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>156800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>148700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>171200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>186800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>197400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>198400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>187600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>209300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>169500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>170400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2898900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2620900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3506500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3416100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4675800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4557100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3656300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2828900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2658400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2642100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2630600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2650000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2901400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2910100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2976300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2812300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2653100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2464400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2394600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2373600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3026,138 +3130,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2626200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2567400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2552300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2592400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2602300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2617400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2709000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2720000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2181800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2143800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2142900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2153200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1378100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1321400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1356600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1035200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1042000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>981500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1004600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>997600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7515900</v>
+      </c>
+      <c r="E49" s="3">
         <v>7558900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7274000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7303800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7276500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7283100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7305700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7550800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7552400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7590900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7610200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7605500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7747400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7776800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7795000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7154600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5836300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5823900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5748700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5692600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3221,8 +3334,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3286,73 +3402,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1335100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1302900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1154800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1193900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1158100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1164500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1176400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1173300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1343800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1352700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1327100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1330300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1693200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1657300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1604800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1524700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1474700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1380500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1347500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1320200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3416,73 +3538,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14376200</v>
+      </c>
+      <c r="E54" s="3">
         <v>14050100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14487700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14506200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15712700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15622100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14847500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14273100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13736300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13729500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13710800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13738900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13720100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13665500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13732800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12526800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11006200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10650400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10495300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10383900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3506,8 +3634,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3531,398 +3660,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>919100</v>
+      </c>
+      <c r="E57" s="3">
         <v>675600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>684900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>644300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>663500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>618100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>785900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>855200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>999500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>819900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>911800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>866200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1018900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>846700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>840400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>833400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>955900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>728900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>803900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>702800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E58" s="3">
         <v>74100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>80800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>98300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>99900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>90100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>103400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>83000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>69900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>53700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>56300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>53400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>30900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>82000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>72500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>71200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>78200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>74200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>79600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>47600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1879500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1592500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1631500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1534000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1584100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1411100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1408600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1359300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1635900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1285700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1343000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1277700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1440300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1213900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1385200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1108000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1334000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1098800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1168400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1028800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2857400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2342200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2397200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2276600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2347500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2119300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2297900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2297500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2705300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2159400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2311100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2197300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2490200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2142600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2298100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2012600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2368100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1901900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2051900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1779200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7393400</v>
+      </c>
+      <c r="E61" s="3">
         <v>7591800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8105600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8111100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9178500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9169500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7862600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7087700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6612200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7198900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7134300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7323700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7213100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7788300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7749500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6976500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5190300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5440100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5214800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5364900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1393400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1420100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1351600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1431500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1440700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1427600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1507400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1426300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1088800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1075200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1021700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1000100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>987300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>888800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>889600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>815400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>988700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>985600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>988000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1001300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3986,8 +4134,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4051,8 +4202,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4116,73 +4270,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11653300</v>
+      </c>
+      <c r="E66" s="3">
         <v>11363900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11864100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11829100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12976700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12726700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11678100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10821500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10416300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10443600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10477100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10521000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10690500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10819800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10937100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9804400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8547200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8327600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8254600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8145400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4206,8 +4366,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4271,8 +4432,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4336,8 +4500,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4401,8 +4568,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4466,73 +4636,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>327600</v>
+      </c>
+      <c r="E72" s="3">
         <v>320200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>315700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>421200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>532400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>708800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>993000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1223100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1107000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1048600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>992700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>990400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>710500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>560900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>514100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>512300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>247100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>159200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>119700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>74700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4596,8 +4772,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4661,8 +4840,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4726,73 +4908,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2722900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2686200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2623500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2677100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2736000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2895300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3169400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3451600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3320000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3285900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3233700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3217900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3029600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2845800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2795600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2722400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2459100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2322800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2240700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2238500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4856,143 +5044,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E80" s="2">
         <v>44379</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44288</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44197</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44106</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43917</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43826</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43644</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43553</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43462</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43371</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43280</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43189</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43098</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43007</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42734</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E81" s="3">
         <v>32600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-77600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-81200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-148600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-256400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-202300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>145800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>85600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>83000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>29400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>250700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>175500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>72600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>292300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>113100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>65300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>70200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>125300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5016,73 +5213,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E83" s="3">
         <v>136200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>137300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>138600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>151200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>148100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>148000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>147900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>145200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>148800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>147900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>150700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>152500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>156900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>152900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>133800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>130000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>126400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>125300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>126500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5146,8 +5347,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5211,8 +5415,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5276,8 +5483,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5341,8 +5551,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5406,73 +5619,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>423300</v>
+      </c>
+      <c r="E89" s="3">
         <v>11900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>337000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-115200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>251500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>217900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-309500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>776000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>119200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>292600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-203700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>901800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>121300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>335600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-311400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>604200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>21000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>454200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-26000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5496,73 +5715,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-153500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-106000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-79100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-69200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-119800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-85100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-114400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-99200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-162600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-110000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-116000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-114400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-195800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-184400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-129500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-118900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-212400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-125200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-108500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-106600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5626,8 +5849,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5691,73 +5917,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-131200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-327500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-84900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-90800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-109800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-109200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-87400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-160100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-107600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-136000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>194200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-193100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-195900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-224700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-177800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-169900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-106100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5781,8 +6013,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5790,13 +6023,13 @@
         <v>-28100</v>
       </c>
       <c r="E96" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-28000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-27900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-27800</v>
       </c>
       <c r="H96" s="3">
         <v>-27800</v>
@@ -5805,10 +6038,10 @@
         <v>-27800</v>
       </c>
       <c r="J96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-27100</v>
       </c>
       <c r="L96" s="3">
         <v>-27100</v>
@@ -5817,10 +6050,10 @@
         <v>-27100</v>
       </c>
       <c r="N96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="O96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-25800</v>
       </c>
       <c r="P96" s="3">
         <v>-25800</v>
@@ -5832,22 +6065,25 @@
         <v>-25800</v>
       </c>
       <c r="S96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="T96" s="3">
         <v>-25300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-25200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-25100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-25200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5911,8 +6147,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5976,8 +6215,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6041,117 +6283,123 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-238400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-603300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1148200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-58700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1251000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>833700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>411600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-584200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-211500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>48100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-663800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>59100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>697700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1701100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-295400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>166000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-285800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>126500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>11100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3800</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -6171,69 +6419,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-916600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>233800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>91900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1214300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>938300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-54500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>34900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>49100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-53100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>84100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-43900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,304 +665,317 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44470</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44379</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44288</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44197</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44106</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43917</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43826</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43644</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43553</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43462</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43371</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43280</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43189</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43098</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43007</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42734</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3948300</v>
+      </c>
+      <c r="E8" s="3">
         <v>3551300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2981200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2819700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2743800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2692200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2152300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3731600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4253600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3951200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4010800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4265300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3913600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3971600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3939300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3965100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3654100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3593300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3621600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3735400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3571000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3197200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2691100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2594200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2537500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2464300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2208000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3226700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3520600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3503300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3595000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3640000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3794400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3383800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3526300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3561500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3520100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3231100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3232400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3226200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3299300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>377300</v>
+      </c>
+      <c r="E10" s="3">
         <v>354100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>290100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>225500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>206300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>227900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-55700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>504900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>733000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>447900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>415800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>360000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>470900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>529800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>445300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>377800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>445000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>423000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>360900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>395400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>436100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -987,8 +1000,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1055,8 +1069,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1123,49 +1140,52 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>55900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>198600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1182,8 +1202,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1191,76 +1211,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E15" s="3">
         <v>138600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>136200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>137300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>138600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>151200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>148100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>148000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>147900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>145200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>148800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>147900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>150700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>152500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>156900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>152900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>133800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>130000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>126400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>125300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>126500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1282,144 +1308,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3808000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3418900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2967800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2814300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2764300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2786100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2479900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3829200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3999300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3745100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3821900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3877200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3892000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3631100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3784900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3802800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3746100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3436200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3438600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3430200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3491300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E18" s="3">
         <v>132400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-93900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-327600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-97600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>254300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>206100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>188900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>122800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>373300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>282500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>186700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>136500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>219000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>217900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>154700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>191400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>244100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1444,144 +1477,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-93000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>26200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-96300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-107900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-92900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-98500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-78300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-85600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-82300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-84200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-82900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-92500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-89800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-94100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-76300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-62600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-61500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-97600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-65700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>182700</v>
+      </c>
+      <c r="E21" s="3">
         <v>178000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>175800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>46400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-50500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-272400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-48200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>323900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>265700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>255400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>186600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>441100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>342400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>253800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>195200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>276600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>285200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>219600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>219100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>304900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1597,20 +1637,20 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1300</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>1300</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1627,8 +1667,8 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1648,144 +1688,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E23" s="3">
         <v>39400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>39600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-90900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-120900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-203100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-421800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-197500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>174700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>120500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>106600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>38700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>290400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>189900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>96900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>42300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>142700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>155300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>93200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>93800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>178400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-21000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-17300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-54500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-97400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>51000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>68300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>57800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>42100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>27800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>52900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1852,144 +1901,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E26" s="3">
         <v>60400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-89800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-103600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-148600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-324400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-198300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>145900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>85400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>83100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>239400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>121600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>72700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>84900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>113200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>65400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>70200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>125400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E27" s="3">
         <v>61500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-89700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-103400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-148200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-324500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-198600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>145800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>85600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>83000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>239400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>121500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>72600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>84800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>113100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>65300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>70200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>125300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2056,61 +2114,64 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>-26100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>3800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>12100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>22200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>68100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-3700</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>11300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>54000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-23700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>207500</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2124,8 +2185,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2192,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2260,144 +2327,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E32" s="3">
         <v>93000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-26200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>96300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>107900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>92900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>98500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>78300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>85600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>82300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>84200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>82900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>92500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>89800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>94100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>76300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>62600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>61500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>97600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>65700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E33" s="3">
         <v>35400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-77600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-81200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-148600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-256400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-202300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>145800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>85600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>83000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>29400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>250700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>175500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>72600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>292300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>113100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>65300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>70200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>125300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2464,149 +2540,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E35" s="3">
         <v>35400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-77600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-81200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-148600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-256400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-202300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>145800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>85600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>83000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>29400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>250700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>175500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>72600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>292300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>113100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>65300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>70200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>125300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44470</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44379</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44288</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44197</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44106</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43917</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43826</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43644</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43553</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43462</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43371</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43280</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43189</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43098</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43007</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42734</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2631,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2657,76 +2743,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>415500</v>
+      </c>
+      <c r="E41" s="3">
         <v>532600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>483400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1166200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2509200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2417300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1203000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>264600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>246600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>220100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>195400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>249900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>215000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>166000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>185500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>185700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>238800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>154700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>145500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>147000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2793,280 +2883,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1896700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1748600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1532900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1466100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1511100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1431200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1423200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1851000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1971900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1807000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1832900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1878200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1880300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1790400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1851900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1875200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1813300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1616000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1532900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1508000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1492300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>393300</v>
+      </c>
+      <c r="E44" s="3">
         <v>412700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>402900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>424500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>427200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>436500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>426800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>403800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>397900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>411300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>393100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>400300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>371100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>724800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>705400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>718200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>614900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>610700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>567600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>571600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>563900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>205200</v>
+      </c>
+      <c r="E45" s="3">
         <v>205000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>201700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>215900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>311600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>298900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>289900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>198600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>194400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>193500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>196000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>156800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>148700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>171200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>186800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>197400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>198400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>187600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>209300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>169500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>170400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2910700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2898900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2620900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3506500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3416100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4675800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4557100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3656300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2828900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2658400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2642100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2630600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2650000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2901400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2910100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2976300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2812300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2653100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2464400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2394600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2373600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3133,144 +3238,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2589500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2626200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2567400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2552300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2592400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2602300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2617400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2709000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2720000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2181800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2143800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2142900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2153200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1378100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1321400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1356600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1035200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1042000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>981500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1004600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>997600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7557000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7515900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7558900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7274000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7303800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7276500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7283100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7305700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7550800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7552400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7590900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7610200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7605500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7747400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7776800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7795000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7154600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5836300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5823900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5748700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5692600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3337,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3405,76 +3522,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1408300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1335100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1302900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1154800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1193900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1158100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1164500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1176400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1173300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1343800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1352700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1327100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1330300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1693200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1657300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1604800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1524700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1474700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1380500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1347500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1320200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3541,76 +3664,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14465500</v>
+      </c>
+      <c r="E54" s="3">
         <v>14376200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14050100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14487700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14506200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15712700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15622100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14847500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14273100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13736300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13729500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13710800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13738900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13720100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13665500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13732800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12526800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11006200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10650400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10495300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10383900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3635,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3661,416 +3791,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>785400</v>
+      </c>
+      <c r="E57" s="3">
         <v>919100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>675600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>684900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>644300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>663500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>618100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>785900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>855200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>999500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>819900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>911800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>866200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1018900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>846700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>840400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>833400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>955900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>728900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>803900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>702800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E58" s="3">
         <v>58900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>74100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>80800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>98300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>99900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>90100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>103400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>83000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>69900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>53700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>56300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>53400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>30900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>82000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>72500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>71200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>78200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>74200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>79600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>47600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1533000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1879500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1592500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1631500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1534000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1584100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1411100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1408600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1359300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1635900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1285700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1343000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1277700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1440300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1213900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1385200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1108000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1334000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1098800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1168400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1028800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2371200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2857400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2342200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2397200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2276600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2347500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2119300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2297900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2297500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2705300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2159400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2311100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2197300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2490200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2142600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2298100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2012600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2368100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1901900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2051900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1779200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7981600</v>
+      </c>
+      <c r="E61" s="3">
         <v>7393400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7591800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8105600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8111100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9178500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9169500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7862600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7087700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6612200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7198900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7134300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7323700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7213100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7788300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7749500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6976500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5190300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5440100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5214800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5364900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1319100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1393400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1420100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1351600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1431500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1440700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1427600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1507400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1426300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1088800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1075200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1021700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1000100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>987300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>888800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>889600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>815400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>988700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>985600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>988000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1001300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4137,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4205,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4273,76 +4428,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11681100</v>
+      </c>
+      <c r="E66" s="3">
         <v>11653300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11363900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11864100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11829100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12976700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12726700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11678100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10821500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10416300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10443600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10477100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10521000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10690500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10819800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10937100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9804400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8547200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8327600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8254600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8145400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4367,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4435,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4503,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4571,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4639,76 +4810,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E72" s="3">
         <v>327600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>320200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>315700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>421200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>532400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>708800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>993000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1223100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1107000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1048600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>992700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>990400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>710500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>560900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>514100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>512300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>247100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>159200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>119700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>74700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4775,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4843,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4911,76 +5094,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2784500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2722900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2686200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2623500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2677100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2736000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2895300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3169400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3451600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3320000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3285900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3233700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3217900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3029600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2845800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2795600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2722400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2459100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2322800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2240700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2238500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5047,149 +5236,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44470</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44379</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44288</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44197</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44106</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43917</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43826</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43644</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43553</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43462</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43371</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43280</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43189</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43098</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43007</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42734</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E81" s="3">
         <v>35400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-77600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-81200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-148600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-256400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-202300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>145800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>85600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>83000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>29400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>250700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>175500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>72600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>292300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>113100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>65300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>70200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>125300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5214,76 +5412,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E83" s="3">
         <v>138600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>136200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>137300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>138600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>151200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>148100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>148000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>147900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>145200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>148800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>147900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>150700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>152500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>156900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>152900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>133800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>130000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>126400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>125300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>126500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5350,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5418,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5486,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5554,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5622,76 +5836,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-503400</v>
+      </c>
+      <c r="E89" s="3">
         <v>423300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>337000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-115200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>251500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>217900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-309500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>776000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>119200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>292600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-203700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>901800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>121300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>335600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-311400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>604200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>21000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>454200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-26000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5716,76 +5936,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-73700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-153500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-106000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-79100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-119800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-85100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-114400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-99200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-162600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-110000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-116000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-114400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-195800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-184400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-129500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-118900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-212400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-125200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-108500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-106600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5852,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5920,76 +6147,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-177700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-131200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-327500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-84900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-90800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-109800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-109200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-87400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-160100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-107600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-136000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>194200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-193100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-195900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-224700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-177800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-169900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-106100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6014,25 +6247,26 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="E96" s="3">
         <v>-28100</v>
       </c>
       <c r="F96" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-28000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-27900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-27800</v>
       </c>
       <c r="I96" s="3">
         <v>-27800</v>
@@ -6041,10 +6275,10 @@
         <v>-27800</v>
       </c>
       <c r="K96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="L96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-27100</v>
       </c>
       <c r="M96" s="3">
         <v>-27100</v>
@@ -6053,10 +6287,10 @@
         <v>-27100</v>
       </c>
       <c r="O96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-25800</v>
       </c>
       <c r="Q96" s="3">
         <v>-25800</v>
@@ -6068,22 +6302,25 @@
         <v>-25800</v>
       </c>
       <c r="T96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="U96" s="3">
         <v>-25300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-25200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-25100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-25200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6150,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6218,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6286,123 +6529,129 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-238400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-603300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1148200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-58700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1251000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>833700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>411600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-584200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-211500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>48100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-663800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>59100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>697700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1701100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-295400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>166000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-285800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>126500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>11100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3800</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -6422,72 +6671,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-117100</v>
+      </c>
+      <c r="E102" s="3">
         <v>49200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-916600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>233800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>91900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1214300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>938300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-54500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>34900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>49100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-53100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>84100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-43900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,330 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44470</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44379</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44288</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44197</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44106</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43917</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43826</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43644</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43553</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43462</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43371</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43280</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43189</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43098</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43007</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42734</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3860500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3948300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3551300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2981200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2819700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2743800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2692200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2152300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3731600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4253600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3951200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4010800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4265300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3913600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3971600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3939300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3965100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3654100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3593300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3621600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3735400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3491200</v>
+      </c>
+      <c r="E9" s="3">
         <v>3571000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3197200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2691100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2594200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2537500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2464300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2208000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3226700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3520600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3503300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3595000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3640000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3794400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3383800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3526300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3561500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3520100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3231100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3232400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3226200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3299300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>369300</v>
+      </c>
+      <c r="E10" s="3">
         <v>377300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>354100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>290100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>225500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>206300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>227900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-55700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>504900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>733000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>447900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>415800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>360000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>470900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>529800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>445300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>377800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>445000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>423000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>360900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>395400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>436100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1014,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,8 +1086,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1143,52 +1160,55 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-4100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>55900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>198600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1205,8 +1225,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1214,79 +1234,85 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E15" s="3">
         <v>135500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>138600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>136200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>137300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>138600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>151200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>148100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>148000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>147900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>145200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>148800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>147900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>150700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>152500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>156900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>152900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>133800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>130000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>126400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>125300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>126500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1309,150 +1335,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3718500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3808000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3418900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2967800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2814300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2764300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2786100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2479900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3829200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3999300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3745100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3821900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3877200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3892000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3631100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3784900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3802800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3746100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3436200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3438600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3430200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3491300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E18" s="3">
         <v>140300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>132400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-93900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-327600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-97600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>254300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>206100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>188900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>122800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>373300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>282500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>186700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>136500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>219000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>217900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>154700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>191400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>244100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1478,150 +1511,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-93100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-93000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>26200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-96300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-107900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-92900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-98500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-78300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-85600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-82300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-84200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-82900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-92500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-89800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-94100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-76300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-62600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-61500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-97600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-65700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E21" s="3">
         <v>182700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>178000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>175800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>46400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-50500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-272400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-48200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>323900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>265700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>255400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>186600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>441100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>342400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>253800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>195200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>276600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>285200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>219600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>219100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>304900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1640,20 +1680,20 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1300</v>
       </c>
       <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>1300</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1670,8 +1710,8 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1691,150 +1731,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E23" s="3">
         <v>47200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>39400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-90900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-120900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-203100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-421800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-197500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>174700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>120500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>106600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>38700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>290400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>189900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>96900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>42300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>142700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>155300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>93200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>93800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>178400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E24" s="3">
         <v>4500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-21000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-17300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-54500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-97400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>51000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>68300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-9100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>57800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>42100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>23600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>52900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1904,150 +1953,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E26" s="3">
         <v>42700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>60400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>28800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-89800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-103600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-148600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-324400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-198300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>145900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>85400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>83100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>239400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>121600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>72700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>51400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>84900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>113200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>65400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>70200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>125400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E27" s="3">
         <v>42600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>61500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>28800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-89700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-103400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-148200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-324500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-198600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>145800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>85600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>83000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>239400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>121500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>72600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>84800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>113100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>65300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>70200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>125300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2117,64 +2175,67 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-26100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>3800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>12100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>22200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>68100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-3700</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>11300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>54000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-23700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>207500</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2188,8 +2249,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2259,8 +2323,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2330,150 +2397,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E32" s="3">
         <v>93100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>93000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-26200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>96300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>107900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>92900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>98500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>78300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>85600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>82300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>84200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>82900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>92500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>89800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>94100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>76300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>62600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>61500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>97600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>65700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E33" s="3">
         <v>42600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>32600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-77600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-81200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-148600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-256400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-202300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>145800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>85600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>83000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>29400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>250700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>175500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>72600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>27600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>292300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>113100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>65300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>70200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>125300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2543,155 +2619,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E35" s="3">
         <v>42600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>32600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-77600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-81200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-148600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-256400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-202300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>145800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>85600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>83000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>29400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>250700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>175500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>72600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>27600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>292300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>113100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>65300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>70200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>125300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44470</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44379</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44288</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44197</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44106</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43917</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43826</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43644</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43553</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43462</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43371</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43280</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43189</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43098</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43007</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42734</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2717,8 +2802,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2744,79 +2830,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>429300</v>
+      </c>
+      <c r="E41" s="3">
         <v>415500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>532600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>483400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1166200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2509200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2417300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1203000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>264600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>246600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>220100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>195400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>249900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>215000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>166000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>185500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>185700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>238800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>154700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>145500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>147000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2886,292 +2976,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1989000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1896700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1748600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1532900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1466100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1511100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1431200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1423200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1851000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1971900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1807000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1832900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1878200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1880300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1790400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1851900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1875200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1813300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1616000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1532900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1508000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1492300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>435600</v>
+      </c>
+      <c r="E44" s="3">
         <v>393300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>412700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>402900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>424500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>427200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>436500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>426800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>403800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>397900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>411300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>393100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>400300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>371100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>724800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>705400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>718200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>614900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>610700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>567600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>571600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>563900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E45" s="3">
         <v>205200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>205000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>201700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>215900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>311600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>298900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>289900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>198600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>194400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>193500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>196000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>156800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>148700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>171200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>186800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>197400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>198400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>187600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>209300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>169500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>170400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3073100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2910700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2898900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2620900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3506500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3416100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4675800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4557100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3656300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2828900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2658400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2642100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2630600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2650000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2901400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2910100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2976300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2812300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2653100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2464400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2394600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2373600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3241,150 +3346,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2591600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2589500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2626200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2567400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2552300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2592400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2602300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2617400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2709000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2720000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2181800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2143800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2142900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2153200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1378100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1321400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1356600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1035200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1042000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>981500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1004600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>997600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7532000</v>
+      </c>
+      <c r="E49" s="3">
         <v>7557000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7515900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7558900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7274000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7303800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7276500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7283100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7305700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7550800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7552400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7590900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7610200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7605500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7747400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7776800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7795000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7154600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5836300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5823900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5748700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5692600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3454,8 +3568,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3525,79 +3642,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1465500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1408300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1335100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1302900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1154800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1193900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1158100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1164500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1176400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1173300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1343800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1352700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1327100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1330300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1693200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1657300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1604800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1524700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1474700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1380500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1347500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1320200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3667,79 +3790,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14662200</v>
+      </c>
+      <c r="E54" s="3">
         <v>14465500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14376200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14050100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14487700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14506200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15712700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15622100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14847500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14273100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13736300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13729500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13710800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13738900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13720100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13665500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13732800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12526800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11006200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10650400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10495300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10383900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3765,8 +3894,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3792,434 +3922,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>928800</v>
+      </c>
+      <c r="E57" s="3">
         <v>785400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>919100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>675600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>684900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>644300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>663500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>618100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>785900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>855200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>999500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>819900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>911800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>866200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1018900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>846700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>840400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>833400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>955900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>728900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>803900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>702800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E58" s="3">
         <v>52900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>58900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>74100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>80800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>98300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>99900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>90100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>103400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>83000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>69900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>53700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>56300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>53400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>30900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>82000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>72500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>71200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>78200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>74200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>79600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>47600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1704200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1533000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1879500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1592500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1631500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1534000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1584100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1411100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1408600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1359300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1635900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1285700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1343000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1277700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1440300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1213900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1385200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1108000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1334000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1098800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1168400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1028800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2699600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2371200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2857400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2342200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2397200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2276600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2347500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2119300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2297900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2297500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2705300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2159400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2311100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2197300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2490200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2142600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2298100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2012600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2368100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1901900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2051900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1779200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7727100</v>
+      </c>
+      <c r="E61" s="3">
         <v>7981600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7393400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7591800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8105600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8111100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9178500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9169500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7862600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7087700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6612200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7198900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7134300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7323700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7213100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7788300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7749500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6976500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5190300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5440100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5214800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5364900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1322400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1319100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1393400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1420100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1351600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1431500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1440700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1427600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1507400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1426300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1088800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1075200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1021700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1000100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>987300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>888800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>889600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>815400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>988700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>985600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>988000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1001300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4289,8 +4438,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4360,8 +4512,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4431,79 +4586,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11758000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11681100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11653300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11363900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11864100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11829100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12976700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12726700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11678100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10821500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10416300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10443600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10477100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10521000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10690500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10819800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10937100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9804400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8547200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8327600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8254600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8145400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4529,8 +4690,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4600,8 +4762,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4671,8 +4836,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4742,8 +4910,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4813,79 +4984,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>347300</v>
+      </c>
+      <c r="E72" s="3">
         <v>339800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>327600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>320200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>315700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>421200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>532400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>708800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>993000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1223100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1107000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1048600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>992700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>990400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>710500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>560900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>514100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>512300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>247100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>159200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>119700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>74700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4955,8 +5132,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5026,8 +5206,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5097,79 +5280,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2904200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2784500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2722900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2686200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2623500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2677100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2736000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2895300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3169400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3451600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3320000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3285900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3233700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3217900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3029600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2845800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2795600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2722400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2459100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2322800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2240700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2238500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5239,155 +5428,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44470</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44379</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44288</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44197</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44106</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43917</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43826</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43644</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43553</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43462</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43371</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43280</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43189</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43098</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43007</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42734</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E81" s="3">
         <v>42600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>32600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-77600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-81200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-148600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-256400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-202300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>145800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>85600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>83000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>29400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>250700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>175500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>72600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>27600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>292300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>113100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>65300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>70200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>125300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5413,79 +5611,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E83" s="3">
         <v>135500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>138600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>136200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>137300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>138600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>151200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>148100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>148000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>147900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>145200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>148800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>147900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>150700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>152500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>156900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>152900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>133800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>130000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>126400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>125300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>126500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5555,8 +5757,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5626,8 +5831,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5697,8 +5905,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5768,8 +5979,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5839,79 +6053,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>375100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-503400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>423300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>337000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-115200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>251500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>217900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-309500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>776000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>119200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>292600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-203700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>901800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>121300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>335600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-311400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>604200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>21000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>454200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-26000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5937,79 +6157,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-99300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-153500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-106000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-79100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-119800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-85100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-114400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-99200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-162600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-110000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-116000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-114400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-195800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-184400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-129500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-118900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-212400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-125200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-108500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-106600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6079,8 +6303,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6150,79 +6377,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-112200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-177700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-131200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-327500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-84900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-90800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-109800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-109200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-87400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-160100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-107600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-136000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>194200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-193100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-195900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-224700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-177800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-169900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-106100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6248,28 +6481,29 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-28200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-28100</v>
       </c>
       <c r="F96" s="3">
         <v>-28100</v>
       </c>
       <c r="G96" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-28000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-27900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-27800</v>
       </c>
       <c r="J96" s="3">
         <v>-27800</v>
@@ -6278,10 +6512,10 @@
         <v>-27800</v>
       </c>
       <c r="L96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="M96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-27100</v>
       </c>
       <c r="N96" s="3">
         <v>-27100</v>
@@ -6290,10 +6524,10 @@
         <v>-27100</v>
       </c>
       <c r="P96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-25800</v>
       </c>
       <c r="R96" s="3">
         <v>-25800</v>
@@ -6305,22 +6539,25 @@
         <v>-25800</v>
       </c>
       <c r="U96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="V96" s="3">
         <v>-25300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-25200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-25100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-25200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6390,8 +6627,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6461,8 +6701,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6532,129 +6775,135 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-247100</v>
+      </c>
+      <c r="E100" s="3">
         <v>565000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-238400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-603300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1148200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-58700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1251000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>833700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>411600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-584200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-211500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>48100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-663800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>59100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>697700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1701100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-295400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>166000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-285800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>126500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>11100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3800</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -6674,75 +6923,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-117100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>49200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-916600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>233800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>91900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1214300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>938300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>24700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-54500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>34900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>49100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-53100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>84100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>9200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-43900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,330 +665,342 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E7" s="2">
         <v>44652</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44470</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44379</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44288</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44197</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44106</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43917</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43826</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43644</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43553</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43462</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43371</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43280</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43189</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43098</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43007</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42734</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4127400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3860500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3948300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3551300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2981200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2819700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2743800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2692200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2152300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3731600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4253600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3951200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4010800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4000000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4265300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3913600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3971600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3939300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3965100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3654100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3593300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3621600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3735400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3747800</v>
+      </c>
+      <c r="E9" s="3">
         <v>3491200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3571000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3197200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2691100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2594200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2537500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2464300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2208000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3226700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3520600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3503300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3595000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3640000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3794400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3383800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3526300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3561500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3520100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3231100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3232400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3226200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3299300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>379600</v>
+      </c>
+      <c r="E10" s="3">
         <v>369300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>377300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>354100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>290100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>225500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>206300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>227900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-55700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>504900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>733000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>447900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>415800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>360000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>470900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>529800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>445300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>377800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>445000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>423000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>360900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>395400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>436100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1089,8 +1102,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1163,8 +1179,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1174,44 +1193,44 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-4100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>55900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>198600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1228,8 +1247,8 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1237,82 +1256,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E15" s="3">
         <v>132300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>135500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>138600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>136200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>137300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>138600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>151200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>148100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>148000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>147900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>145200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>148800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>147900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>150700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>152500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>156900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>152900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>133800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>130000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>126400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>125300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>126500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1336,156 +1361,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3979500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3718500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3808000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3418900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2967800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2814300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2764300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2786100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2479900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3829200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3999300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3745100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3821900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3877200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3892000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3631100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3784900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3802800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3746100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3436200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3438600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3430200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3491300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E18" s="3">
         <v>142000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>140300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>132400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-93900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-327600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-97600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>254300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>206100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>188900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>122800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>373300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>282500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>186700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>136500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>219000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>217900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>154700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>191400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>244100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1512,156 +1544,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-91500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-89700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-93100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-93000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>26200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-96300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-107900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-92900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-98500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-78300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-85600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-82300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-84200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-82900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-92500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-89800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-94100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-76300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-62600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-61500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-97600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-65700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>189400</v>
+      </c>
+      <c r="E21" s="3">
         <v>184600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>182700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>178000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>175800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>46400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-50500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-272400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-48200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>323900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>265700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>255400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>186600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>441100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>342400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>253800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>195200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>276600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>285200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>219600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>219100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>304900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1683,20 +1722,20 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1300</v>
       </c>
       <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>1300</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1713,8 +1752,8 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1734,156 +1773,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E23" s="3">
         <v>52300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>47200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>39600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-90900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-120900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-203100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-421800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-197500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>174700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>120500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>106600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>38700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>290400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>189900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>96900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>42300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>142700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>155300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>93200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>93800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>178400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E24" s="3">
         <v>16800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-21000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-17300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-54500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-97400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>51000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>68300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-9100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>57800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>42100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>23600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>52900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1956,156 +2004,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E26" s="3">
         <v>35500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>42700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>60400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-89800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-103600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-148600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-324400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-198300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>145900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>85400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>83100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>239400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>121600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>72700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>51400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>84900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>113200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>65400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>70200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>125400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E27" s="3">
         <v>35700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>61500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-89700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-103400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-148200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-324500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-198600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>145800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>85600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>83000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>239400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>121500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>72600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>51300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>84800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>113100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>65300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>70200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>125300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2178,8 +2235,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2189,56 +2249,56 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-26100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>3800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>12100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>22200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>68100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3700</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>11300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>54000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-23700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>207500</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2252,8 +2312,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2326,8 +2389,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2400,156 +2466,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E32" s="3">
         <v>89700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>93100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>93000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-26200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>96300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>107900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>92900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>98500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>78300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>85600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>82300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>84200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>82900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>92500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>89800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>94100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>76300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>62600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>61500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>97600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>65700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E33" s="3">
         <v>35700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>42600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-77600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-81200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-148600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-256400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-202300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>145800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>85600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>83000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>29400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>250700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>175500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>72600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>27600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>292300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>113100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>65300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>70200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>125300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2622,161 +2697,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E35" s="3">
         <v>35700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>42600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>32600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-77600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-81200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-148600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-256400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-202300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>145800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>85600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>83000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>29400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>250700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>175500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>72600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>27600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>292300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>113100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>65300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>70200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>125300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E38" s="2">
         <v>44652</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44470</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44379</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44288</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44197</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44106</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43917</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43826</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43644</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43553</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43462</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43371</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43280</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43189</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43098</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43007</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42734</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2803,8 +2887,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2831,82 +2916,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>438900</v>
+      </c>
+      <c r="E41" s="3">
         <v>429300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>415500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>532600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>483400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1400000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1166200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2509200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2417300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1203000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>264600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>246600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>220100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>195400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>249900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>215000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>166000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>185500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>185700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>238800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>154700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>145500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>147000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2979,304 +3068,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2052200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1989000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1896700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1748600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1532900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1466100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1511100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1431200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1423200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1851000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1971900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1807000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1832900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1878200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1880300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1790400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1851900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1875200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1813300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1616000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1532900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1508000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1492300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>514900</v>
+      </c>
+      <c r="E44" s="3">
         <v>435600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>393300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>412700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>402900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>424500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>427200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>436500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>426800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>403800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>397900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>411300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>393100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>371100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>724800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>705400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>718200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>614900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>610700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>567600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>571600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>563900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E45" s="3">
         <v>219200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>205200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>205000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>201700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>215900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>311600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>298900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>289900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>198600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>194400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>193500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>196000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>156800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>148700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>171200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>186800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>197400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>198400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>187600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>209300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>169500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>170400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3198000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3073100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2910700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2898900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2620900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3506500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3416100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4675800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4557100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3656300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2828900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2658400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2642100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2630600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2650000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2901400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2910100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2976300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2812300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2653100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2464400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2394600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2373600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3349,156 +3453,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2617100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2591600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2589500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2626200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2567400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2552300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2592400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2602300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2617400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2709000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2720000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2181800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2143800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2142900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2153200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1378100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1321400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1356600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1035200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1042000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>981500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1004600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>997600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7701900</v>
+      </c>
+      <c r="E49" s="3">
         <v>7532000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7557000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7515900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7558900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7274000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7303800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7276500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7283100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7305700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7550800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7552400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7590900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7610200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7605500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7747400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7776800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7795000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7154600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5836300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5823900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5748700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5692600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3571,8 +3684,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3645,82 +3761,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1471700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1465500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1408300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1335100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1302900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1154800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1193900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1158100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1164500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1176400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1173300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1343800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1352700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1327100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1330300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1693200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1657300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1604800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1524700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1474700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1380500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1347500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1320200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3793,82 +3915,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14988800</v>
+      </c>
+      <c r="E54" s="3">
         <v>14662200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14465500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14376200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14050100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14487700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14506200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15712700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15622100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14847500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14273100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13736300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13729500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13710800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13738900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13720100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13665500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13732800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12526800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11006200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10650400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10495300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10383900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3895,8 +4023,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3923,452 +4052,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>908100</v>
+      </c>
+      <c r="E57" s="3">
         <v>928800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>785400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>919100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>675600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>684900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>644300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>663500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>618100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>785900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>855200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>999500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>819900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>911800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>866200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1018900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>846700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>840400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>833400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>955900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>728900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>803900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>702800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E58" s="3">
         <v>66600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>52900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>58900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>74100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>80800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>98300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>99900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>90100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>103400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>83000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>69900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>53700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>56300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>53400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>30900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>82000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>72500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>71200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>78200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>74200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>79600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>47600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1574300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1704200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1533000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1879500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1592500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1631500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1534000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1584100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1411100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1408600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1359300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1635900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1285700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1343000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1277700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1440300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1213900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1385200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1108000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1334000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1098800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1168400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1028800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2559900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2699600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2371200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2857400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2342200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2397200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2276600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2347500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2119300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2297900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2297500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2705300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2159400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2311100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2197300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2490200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2142600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2298100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2012600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2368100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1901900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2051900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1779200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8084800</v>
+      </c>
+      <c r="E61" s="3">
         <v>7727100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7981600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7393400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7591800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8105600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8111100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9178500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9169500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7862600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7087700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6612200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7198900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7134300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7323700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7213100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7788300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7749500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6976500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5190300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5440100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5214800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5364900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1419600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1322400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1319100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1393400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1420100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1351600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1431500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1440700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1427600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1507400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1426300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1088800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1075200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1021700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1000100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>987300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>888800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>889600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>815400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>988700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>985600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>988000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1001300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4441,8 +4589,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4515,8 +4666,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4589,82 +4743,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12073500</v>
+      </c>
+      <c r="E66" s="3">
         <v>11758000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11681100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11653300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11363900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11864100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11829100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12976700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12726700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11678100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10821500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10416300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10443600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10477100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10521000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10690500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10819800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10937100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9804400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8547200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8327600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8254600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8145400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4691,8 +4851,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4765,8 +4926,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4839,8 +5003,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4913,8 +5080,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4987,82 +5157,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>359300</v>
+      </c>
+      <c r="E72" s="3">
         <v>347300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>339800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>327600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>320200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>315700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>421200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>532400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>708800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>993000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1223100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1107000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1048600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>992700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>990400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>710500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>560900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>514100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>512300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>247100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>159200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>119700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>74700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5135,8 +5311,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5209,8 +5388,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5283,82 +5465,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2915300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2904200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2784500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2722900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2686200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2623500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2677100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2736000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2895300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3169400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3451600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3320000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3285900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3233700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3217900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3029600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2845800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2795600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2722400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2459100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2322800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2240700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2238500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5431,161 +5619,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E80" s="2">
         <v>44652</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44470</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44379</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44288</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44197</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44106</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43917</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43826</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43644</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43553</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43462</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43371</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43280</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43189</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43098</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43007</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42734</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E81" s="3">
         <v>35700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>42600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>32600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-77600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-81200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-148600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-256400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-202300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>145800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>85600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>83000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>29400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>250700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>175500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>72600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>27600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>292300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>113100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>65300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>70200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>125300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5612,82 +5809,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E83" s="3">
         <v>132300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>135500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>138600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>136200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>137300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>138600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>151200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>148100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>148000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>147900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>145200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>148800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>147900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>150700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>152500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>156900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>152900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>133800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>130000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>126400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>125300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>126500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5760,8 +5961,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5834,8 +6038,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5908,8 +6115,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5982,8 +6192,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6056,82 +6269,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E89" s="3">
         <v>375100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-503400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>423300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>337000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-115200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>251500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>217900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-309500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>776000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>119200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>292600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-203700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>901800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>121300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>335600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-311400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>604200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>454200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-26000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6158,82 +6377,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-87100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-99300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-153500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-106000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-79100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-119800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-85100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-114400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-99200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-162600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-110000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-116000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-114400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-195800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-184400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-129500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-118900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-212400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-125200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-108500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-106600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6306,8 +6529,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6380,82 +6606,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-351600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-112200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-177700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-131200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-327500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-84900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-90800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-109800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-109200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-87400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-160100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-107600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-136000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>194200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-193100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-195900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-224700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-177800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-169900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-106100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6482,8 +6714,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6491,22 +6724,22 @@
         <v>-28300</v>
       </c>
       <c r="E96" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-28200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-28100</v>
       </c>
       <c r="G96" s="3">
         <v>-28100</v>
       </c>
       <c r="H96" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-28000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-27900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-27800</v>
       </c>
       <c r="K96" s="3">
         <v>-27800</v>
@@ -6515,10 +6748,10 @@
         <v>-27800</v>
       </c>
       <c r="M96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="N96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-27100</v>
       </c>
       <c r="O96" s="3">
         <v>-27100</v>
@@ -6527,10 +6760,10 @@
         <v>-27100</v>
       </c>
       <c r="Q96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="R96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-25800</v>
       </c>
       <c r="S96" s="3">
         <v>-25800</v>
@@ -6542,22 +6775,25 @@
         <v>-25800</v>
       </c>
       <c r="V96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="W96" s="3">
         <v>-25300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-25200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-25100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-25200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6630,8 +6866,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6704,8 +6943,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6778,135 +7020,141 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>385700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-247100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>565000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-238400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-603300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1148200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-58700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1251000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>833700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>411600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-584200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-211500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>48100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-663800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>59100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>697700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1701100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-295400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>166000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-285800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>126500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>11100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3800</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -6926,78 +7174,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E102" s="3">
         <v>13800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-117100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>49200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-916600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>233800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>91900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1214300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>938300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>24700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>34900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>49100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-19600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-53100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>84100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>9200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-43900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,342 +665,367 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44743</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44652</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44470</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44379</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44288</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44197</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44106</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43644</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43553</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43462</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43371</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43280</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43189</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43098</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43007</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42734</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4601000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4390500</v>
+      </c>
+      <c r="F8" s="3">
         <v>4127400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3860500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3948300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3551300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2981200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2819700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2743800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2692200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2152300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3731600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4253600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3951200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4010800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4000000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4265300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3913600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3971600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3939300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3965100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3654100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3593300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>3621600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>3735400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4162100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3957500</v>
+      </c>
+      <c r="F9" s="3">
         <v>3747800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3491200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3571000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3197200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2691100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2594200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2537500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2464300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2208000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3226700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3520600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3503300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3595000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3640000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3794400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3383800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3526300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3561500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3520100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3231100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>3232400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>3226200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>3299300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>438900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>433000</v>
+      </c>
+      <c r="F10" s="3">
         <v>379600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>369300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>377300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>354100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>290100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>225500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>206300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>227900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-55700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>504900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>733000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>447900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>415800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>360000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>470900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>529800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>445300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>377800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>445000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>423000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>360900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>395400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>436100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1053,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1105,8 +1132,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1182,61 +1215,67 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-4100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>55900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-1900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>198600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1250,94 +1289,106 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>131500</v>
+      </c>
+      <c r="F15" s="3">
         <v>133000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>132300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>135500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>138600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>136200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>137300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>138600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>151200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>148100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>148000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>147900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>145200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>148800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>147900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>150700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>152500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>156900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>152900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>133800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>130000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>126400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>125300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>126500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1362,162 +1413,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4401400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4192200</v>
+      </c>
+      <c r="F17" s="3">
         <v>3979500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3718500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3808000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3418900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2967800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2814300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2764300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2786100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2479900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3829200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3999300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3745100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3821900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3877200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3892000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3631100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3784900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3802800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3746100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3436200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3438600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3430200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>3491300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>199600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>198300</v>
+      </c>
+      <c r="F18" s="3">
         <v>147900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>142000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>140300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>132400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>13400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-20500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-93900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-327600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-97600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>254300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>206100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>188900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>122800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>373300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>282500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>186700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>136500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>219000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>217900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>154700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>191400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>244100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1545,162 +1610,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-101300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-91500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-89700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-93100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-93000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>26200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-96300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-107900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-92900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-98500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-78300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-85600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-82300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-84200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-82900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-92500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-89800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-94100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-76300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-62600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-61500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-97600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-65700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>234800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>231200</v>
+      </c>
+      <c r="F21" s="3">
         <v>189400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>184600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>182700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>178000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>175800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>46400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>17700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-50500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-272400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-48200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>323900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>265700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>255400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>186600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>441100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>342400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>253800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>195200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>276600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>285200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>219600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>219100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>304900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1725,23 +1804,23 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1400</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>1300</v>
       </c>
       <c r="N22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>1300</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1755,11 +1834,11 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1776,162 +1855,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>99700</v>
+      </c>
+      <c r="F23" s="3">
         <v>56400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>52300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>47200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>39400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>39600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-90900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-120900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-203100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-421800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-197500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>174700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>120500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>106600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>38700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>290400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>189900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>96900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>42300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>142700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>155300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>93200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>93800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>178400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F24" s="3">
         <v>15900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>16800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-21000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>10800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-17300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-54500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-97400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>28800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>35100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>23500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>8400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>51000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>68300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>24200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-9100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>57800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>42100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>27800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>23600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>52900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2007,162 +2104,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>75400</v>
+      </c>
+      <c r="F26" s="3">
         <v>40500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>35500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>42700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>60400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>28800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-89800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-103600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-148600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-324400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-198300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>145900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>85400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>83100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>30200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>239400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>121600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>72700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>51400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>84900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>113200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>65400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>70200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>125400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F27" s="3">
         <v>40300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>35700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>42600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>61500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>28800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-89700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-103400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-148200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-324500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-198600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>145800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>85600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>83000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>30300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>239400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>121500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>72600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>51300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>84800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>113100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>65300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>70200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>125300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2238,8 +2353,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2252,59 +2373,59 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-26100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>3800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>12100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>22200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>68100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-3700</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>11300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>54000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-23700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>207500</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2315,8 +2436,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2392,8 +2519,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2469,162 +2602,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>98600</v>
+      </c>
+      <c r="F32" s="3">
         <v>91500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>89700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>93100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>93000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-26200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>96300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>107900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>92900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>98500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>78300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>85600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>82300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>84200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>82900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>92500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>89800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>94100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>76300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>62600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>61500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>97600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>65700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F33" s="3">
         <v>40300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>35700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>42600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>35400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>32600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-77600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-81200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-148600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-256400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-202300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>145800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>85600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>83000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>29400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>250700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>175500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>72600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>27600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>292300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>113100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>65300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>70200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>125300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2700,167 +2851,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F35" s="3">
         <v>40300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>35700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>42600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>35400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>32600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-77600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-81200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-148600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-256400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-202300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>145800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>85600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>83000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>29400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>250700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>175500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>72600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>27600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>292300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>113100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>65300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>70200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>125300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44743</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44652</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44470</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44379</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44288</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44197</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44106</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43644</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43553</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43462</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43371</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43280</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43189</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43098</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43007</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42734</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2888,8 +3057,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2917,85 +3088,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>305100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>329500</v>
+      </c>
+      <c r="F41" s="3">
         <v>438900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>429300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>415500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>532600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>483400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1400000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1166200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2509200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2417300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1203000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>264600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>246600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>220100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>195400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>249900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>215000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>166000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>185500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>185700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>238800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>154700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>145500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>147000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3071,316 +3250,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2299800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2148000</v>
+      </c>
+      <c r="F43" s="3">
         <v>2052200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1989000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1896700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1748600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1532900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1466100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1511100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1431200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1423200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1851000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1971900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1807000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1832900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1878200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1880300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1790400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1851900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1875200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1813300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1616000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1532900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1508000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1492300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>569800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>552400</v>
+      </c>
+      <c r="F44" s="3">
         <v>514900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>435600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>393300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>412700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>402900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>424500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>427200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>436500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>426800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>403800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>397900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>411300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>393100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>400300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>371100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>724800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>705400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>718200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>614900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>610700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>567600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>571600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>563900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>260500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>262200</v>
+      </c>
+      <c r="F45" s="3">
         <v>192000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>219200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>205200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>205000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>201700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>215900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>311600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>298900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>289900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>198600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>194400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>193500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>196000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>156800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>148700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>171200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>186800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>197400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>198400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>187600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>209300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>169500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>170400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3435100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3292000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3198000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3073100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2910700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2898900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2620900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3506500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3416100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4675800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4557100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3656300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2828900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2658400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2642100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2630600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2650000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2901400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2910100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2976300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2812300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2653100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2464400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2394600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>2373600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3456,162 +3665,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2644900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2624200</v>
+      </c>
+      <c r="F48" s="3">
         <v>2617100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2591600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2589500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2626200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2567400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2552300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2592400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2602300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2617400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2709000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2720000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2181800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2143800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2142900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2153200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1378100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1321400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1356600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1035200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1042000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>981500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1004600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>997600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7644300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7628900</v>
+      </c>
+      <c r="F49" s="3">
         <v>7701900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>7532000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7557000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>7515900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>7558900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>7274000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7303800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7276500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7283100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7305700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7550800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>7552400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>7590900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>7610200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>7605500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>7747400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>7776800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>7795000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>7154600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>5836300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>5823900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>5748700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>5692600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3687,8 +3914,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3764,85 +3997,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1566200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1537400</v>
+      </c>
+      <c r="F52" s="3">
         <v>1471700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1465500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1408300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1335100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1302900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1154800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1193900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1158100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1164500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1176400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1173300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1343800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1352700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1327100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1330300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1693200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1657300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1604800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1524700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1474700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1380500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1347500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1320200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3918,85 +4163,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15290500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>15082400</v>
+      </c>
+      <c r="F54" s="3">
         <v>14988800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>14662200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>14465500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>14376200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>14050100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>14487700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>14506200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>15712700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>15622100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>14847500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>14273100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13736300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>13729500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>13710800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>13738900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>13720100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>13665500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>13732800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>12526800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>11006200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10650400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10495300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>10383900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4024,8 +4281,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4053,470 +4312,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1092600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1322900</v>
+      </c>
+      <c r="F57" s="3">
         <v>908100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>928800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>785400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>919100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>675600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>684900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>644300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>663500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>618100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>785900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>855200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>999500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>819900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>911800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>866200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1018900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>846700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>840400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>833400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>955900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>728900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>803900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>702800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F58" s="3">
         <v>77500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>66600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>52900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>58900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>74100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>80800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>98300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>99900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>90100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>103400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>83000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>69900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>53700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>56300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>53400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>30900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>82000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>72500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>71200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>78200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>74200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>79600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>47600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1488900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1897900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1574300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1704200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1533000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1879500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1592500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1631500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1534000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1584100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1411100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1408600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1359300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1635900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1285700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1343000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1277700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1440300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1213900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1385200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1108000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1334000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1098800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1168400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1028800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2684200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3285900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2559900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2699600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2371200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2857400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2342200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2397200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2276600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2347500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2119300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2297900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2297500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2705300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2159400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2311100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2197300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2490200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2142600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2298100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2012600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2368100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1901900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2051900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1779200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8056300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7345900</v>
+      </c>
+      <c r="F61" s="3">
         <v>8084800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7727100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7981600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7393400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7591800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>8105600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>8111100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>9178500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9169500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>7862600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>7087700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6612200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>7198900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>7134300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>7323700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>7213100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>7788300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>7749500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>6976500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5190300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>5440100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5214800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>5364900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1398500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1412200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1419600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1322400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1319100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1393400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1420100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1351600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1431500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1440700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1427600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1507400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1426300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1088800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1075200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1021700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1000100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>987300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>888800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>889600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>815400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>988700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>985600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>988000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1001300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,8 +4889,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4669,8 +4972,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4746,85 +5055,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12147300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12052800</v>
+      </c>
+      <c r="F66" s="3">
         <v>12073500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11758000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11681100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11653300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11363900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11864100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11829100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12976700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12726700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11678100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10821500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10416300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10443600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>10477100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10521000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>10690500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>10819800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>10937100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9804400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>8547200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>8327600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>8254600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>8145400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4852,8 +5173,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4929,8 +5252,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5006,8 +5335,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5083,8 +5418,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5160,85 +5501,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>450200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>406800</v>
+      </c>
+      <c r="F72" s="3">
         <v>359300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>347300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>339800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>327600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>320200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>315700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>421200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>532400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>708800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>993000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1223100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1107000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1048600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>992700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>990400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>710500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>560900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>514100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>512300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>247100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>159200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>119700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>74700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5314,8 +5667,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5391,8 +5750,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5468,85 +5833,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3143300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3029600</v>
+      </c>
+      <c r="F76" s="3">
         <v>2915300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2904200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2784500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2722900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2686200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2623500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2677100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2736000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2895300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3169400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3451600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3320000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3285900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3233700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3217900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3029600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2845800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2795600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2722400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2459100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2322800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2240700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2238500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5622,167 +5999,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44743</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44652</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44470</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44379</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44288</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44197</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44106</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43644</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43553</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43462</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43371</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43280</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43189</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43098</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43007</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42734</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F81" s="3">
         <v>40300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>35700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>42600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>35400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>32600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-77600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-81200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-148600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-256400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-202300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>145800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>85600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>83000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>29400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>250700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>175500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>72600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>27600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>292300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>113100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>65300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>70200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>125300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5810,85 +6205,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>131500</v>
+      </c>
+      <c r="F83" s="3">
         <v>133000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>132300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>135500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>138600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>136200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>137300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>138600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>151200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>148100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>148000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>147900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>145200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>148800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>147900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>150700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>152500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>156900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>152900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>133800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>130000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>126400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>125300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>126500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5964,8 +6367,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6041,8 +6450,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6118,8 +6533,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6195,8 +6616,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6272,85 +6699,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-607200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>836500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-13700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>375100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-503400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>423300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>11900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>337000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-115200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>251500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>16800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>217900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-309500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>776000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>119200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>292600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-203700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>901800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>121300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>335600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-311400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>604200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>21000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>454200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-26000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6378,85 +6817,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-102600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-128300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-87100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-99300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-73700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-153500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-106000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-79100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-69200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-119800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-85100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-114400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-99200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-162600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-110000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-116000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-114400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-195800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-184400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-129500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-118900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-212400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-125200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-108500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-106600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6532,8 +6979,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6609,85 +7062,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-189800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-351600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-112200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-177700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-131200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-327500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-84900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-90800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-109800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-54700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-109200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-87400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-160100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-107600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-136000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>194200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-193100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-195900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-224700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-177800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-169900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-106100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6715,61 +7180,63 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-28300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-28300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-28200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-28100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-28100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-28000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-27900</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-27800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-27800</v>
       </c>
       <c r="M96" s="3">
         <v>-27800</v>
       </c>
       <c r="N96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="P96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-27100</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-27100</v>
       </c>
       <c r="Q96" s="3">
         <v>-27100</v>
       </c>
       <c r="R96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="T96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-25800</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-25800</v>
       </c>
       <c r="U96" s="3">
         <v>-25800</v>
@@ -6778,22 +7245,28 @@
         <v>-25800</v>
       </c>
       <c r="W96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="X96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-25300</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-25200</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-25100</v>
       </c>
       <c r="Z96" s="3">
         <v>-25200</v>
       </c>
       <c r="AA96" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6869,8 +7342,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6946,8 +7425,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7023,145 +7508,157 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>655300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-741200</v>
+      </c>
+      <c r="F100" s="3">
         <v>385700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-247100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>565000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-238400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-603300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-15500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1148200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-58700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1251000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>833700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>411600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-584200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>12700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-211500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>48100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-663800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>59100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>697700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1701100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-295400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>166000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-285800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>126500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F101" s="3">
         <v>-10800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-4500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-2800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>11100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>8900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-5100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-3800</v>
       </c>
-      <c r="S101" s="3" t="s">
+      <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="3" t="s">
+      <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -7177,81 +7674,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-109400</v>
+      </c>
+      <c r="F102" s="3">
         <v>9600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>13800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-117100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>49200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-916600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>233800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>91900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1214300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>938300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>18000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>26600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>24700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-54500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>34900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>49100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-19600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-53100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>84100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>9200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-43900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,367 +665,380 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44925</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44743</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44652</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44470</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44379</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44288</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44197</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44106</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43644</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43553</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43462</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43371</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43280</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43189</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43098</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43007</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42734</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4602100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4601000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4390500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4127400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3860500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3948300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3551300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2981200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2819700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2743800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2692200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2152300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3731600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4253600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3951200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4010800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4000000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4265300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3913600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3971600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3939300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3965100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3654100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3593300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3621600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3735400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4179400</v>
+      </c>
+      <c r="E9" s="3">
         <v>4162100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3957500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3747800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3491200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3571000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3197200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2691100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2594200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2537500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2464300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2208000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3226700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3520600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3503300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3595000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3640000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3794400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3383800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3526300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3561500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3520100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3231100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3232400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3226200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3299300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>422700</v>
+      </c>
+      <c r="E10" s="3">
         <v>438900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>433000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>379600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>369300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>377300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>354100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>290100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>225500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>206300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>227900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-55700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>504900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>733000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>447900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>415800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>360000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>470900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>529800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>445300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>377800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>445000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>423000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>360900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>395400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>436100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,8 +1068,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1138,8 +1152,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1221,19 +1238,22 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1241,44 +1261,44 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-4100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>55900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>198600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1295,8 +1315,8 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
@@ -1304,91 +1324,97 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E15" s="3">
         <v>136500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>131500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>133000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>132300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>135500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>138600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>136200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>137300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>138600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>151200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>148100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>148000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>147900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>145200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>148800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>147900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>150700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>152500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>156900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>152900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>133800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>130000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>126400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>125300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>126500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1415,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4420100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4401400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4192200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3979500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3718500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3808000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3418900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2967800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2814300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2764300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2786100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2479900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3829200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3999300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3745100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3821900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3877200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3892000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3631100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3784900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3802800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3746100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3436200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3438600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3430200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3491300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E18" s="3">
         <v>199600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>198300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>147900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>142000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>140300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>132400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-93900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-327600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-97600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>254300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>206100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>188900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>122800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>373300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>282500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>186700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>136500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>219000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>217900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>154700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>191400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>244100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1612,174 +1645,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-101300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-98600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-91500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-89700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-93100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-93000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>26200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-96300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-107900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-92900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-98500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-78300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-85600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-82300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-84200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-82900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-92500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-89800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-94100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-76300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-62600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-61500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-97600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-65700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>204800</v>
+      </c>
+      <c r="E21" s="3">
         <v>234800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>231200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>189400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>184600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>182700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>178000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>175800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>46400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-50500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-272400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-48200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>323900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>265700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>255400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>186600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>441100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>342400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>253800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>195200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>276600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>285200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>219600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>219100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>304900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1810,20 +1850,20 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1300</v>
       </c>
       <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>1300</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1840,8 +1880,8 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1861,174 +1901,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E23" s="3">
         <v>98300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>99700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>56400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>52300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>47200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>39400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>39600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-90900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-120900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-203100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-421800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-197500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>174700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>120500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>106600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>38700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>290400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>189900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>96900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>42300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>142700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>155300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>93200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>93800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>178400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E24" s="3">
         <v>24700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-21000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-17300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-54500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-97400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>51000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>68300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-9100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>57800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>42100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>27800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>23600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>52900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2110,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E26" s="3">
         <v>73700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>75400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>40500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>42700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>60400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>28800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-89800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-103600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-148600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-324400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-198300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>145900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>85400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>83100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>30200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>239400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>121600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>72700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>51400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>84900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>113200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>65400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>70200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>125400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E27" s="3">
         <v>74200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>75800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>40300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>42600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>61500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>28800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-89700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-103400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-148200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-324500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-198600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>145800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>85600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>83000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>239400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>121500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>72600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>51300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>84800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>113100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>65300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>70200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>125300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2359,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2379,56 +2440,56 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-26100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>3800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>12100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>22200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>68100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-3700</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>11300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>54000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-23700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>207500</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2442,8 +2503,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2525,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2608,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E32" s="3">
         <v>101300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>98600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>91500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>89700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>93100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>93000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-26200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>96300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>107900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>92900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>98500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>78300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>85600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>82300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>84200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>82900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>92500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>89800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>94100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>76300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>62600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>61500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>97600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>65700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E33" s="3">
         <v>74200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>75800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>40300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>42600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-77600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-81200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-148600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-256400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-202300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>145800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>85600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>83000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>29400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>250700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>175500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>72600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>27600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>292300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>113100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>65300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>70200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>125300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2857,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E35" s="3">
         <v>74200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>75800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>40300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>42600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-77600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-81200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-148600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-256400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-202300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>145800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>85600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>83000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>29400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>250700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>175500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>72600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>27600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>292300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>113100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>65300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>70200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>125300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44925</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44743</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44652</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44470</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44379</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44288</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44197</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44106</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43644</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43553</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43462</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43371</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43280</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43189</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43098</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43007</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42734</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3059,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3090,91 +3176,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>302700</v>
+      </c>
+      <c r="E41" s="3">
         <v>305100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>329500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>438900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>429300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>415500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>532600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>483400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1166200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2509200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2417300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1203000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>264600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>246600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>220100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>195400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>249900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>215000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>166000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>185500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>185700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>238800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>154700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>145500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>147000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3256,340 +3346,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2353600</v>
+      </c>
+      <c r="E43" s="3">
         <v>2299800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2148000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2052200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1989000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1896700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1748600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1532900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1466100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1511100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1431200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1423200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1851000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1971900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1807000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1832900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1878200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1880300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1790400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1851900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1875200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1813300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1616000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1532900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1508000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1492300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>609600</v>
+      </c>
+      <c r="E44" s="3">
         <v>569800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>552400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>514900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>435600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>393300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>412700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>402900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>424500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>427200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>436500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>426800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>403800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>397900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>411300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>393100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>371100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>724800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>705400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>718200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>614900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>610700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>567600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>571600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>563900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>330700</v>
+      </c>
+      <c r="E45" s="3">
         <v>260500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>262200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>192000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>219200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>205200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>205000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>201700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>215900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>311600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>298900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>289900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>198600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>194400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>193500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>196000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>156800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>148700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>171200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>186800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>197400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>198400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>187600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>209300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>169500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>170400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3596600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3435100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3292000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3198000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3073100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2910700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2898900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2620900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3506500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3416100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4675800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4557100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3656300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2828900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2658400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2642100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2630600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2650000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2901400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2910100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2976300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2812300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2653100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2464400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2394600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2373600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3671,174 +3776,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2661500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2644900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2624200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2617100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2591600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2589500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2626200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2567400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2552300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2592400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2602300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2617400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2709000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2720000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2181800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2143800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2142900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2153200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1378100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1321400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1356600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1035200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1042000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>981500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1004600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>997600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7673800</v>
+      </c>
+      <c r="E49" s="3">
         <v>7644300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7628900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7701900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7532000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7557000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7515900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7558900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7274000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7303800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7276500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7283100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7305700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7550800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7552400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7590900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7610200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7605500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7747400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7776800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7795000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7154600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5836300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5823900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5748700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5692600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3920,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4003,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1524200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1566200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1537400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1471700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1465500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1408300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1335100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1302900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1154800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1193900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1158100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1164500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1176400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1173300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1343800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1352700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1327100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1330300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1693200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1657300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1604800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1524700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1474700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1380500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1347500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1320200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4169,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15456100</v>
+      </c>
+      <c r="E54" s="3">
         <v>15290500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15082400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14988800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14662200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14465500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14376200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14050100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14487700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14506200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15712700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15622100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14847500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14273100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13736300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13729500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13710800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13738900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13720100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13665500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13732800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12526800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11006200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10650400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10495300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10383900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4283,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4314,506 +4444,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1137900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1092600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1322900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>908100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>928800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>785400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>919100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>675600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>684900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>644300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>663500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>618100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>785900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>855200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>999500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>819900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>911800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>866200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1018900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>846700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>840400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>833400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>955900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>728900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>803900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>702800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E58" s="3">
         <v>102700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>65000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>77500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>66600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>52900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>58900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>74100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>80800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>98300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>99900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>90100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>103400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>83000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>69900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>53700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>56300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>53400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>30900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>82000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>72500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>71200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>78200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>74200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>79600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>47600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1719700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1488900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1897900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1574300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1704200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1533000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1879500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1592500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1631500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1534000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1584100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1411100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1408600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1359300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1635900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1285700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1343000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1277700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1440300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1213900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1385200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1108000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1334000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1098800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1168400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1028800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2968100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2684200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3285900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2559900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2699600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2371200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2857400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2342200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2397200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2276600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2347500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2119300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2297900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2297500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2705300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2159400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2311100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2197300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2490200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2142600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2298100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2012600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2368100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1901900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2051900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1779200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7906600</v>
+      </c>
+      <c r="E61" s="3">
         <v>8056300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7345900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8084800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7727100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7981600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7393400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7591800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8105600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8111100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9178500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9169500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7862600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7087700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6612200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7198900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7134300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7323700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7213100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7788300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7749500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6976500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5190300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5440100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5214800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5364900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1390000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1398500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1412200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1419600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1322400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1319100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1393400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1420100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1351600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1431500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1440700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1427600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1507400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1426300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1088800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1075200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1021700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1000100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>987300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>888800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>889600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>815400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>988700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>985600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>988000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1001300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4895,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4978,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5061,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12272800</v>
+      </c>
+      <c r="E66" s="3">
         <v>12147300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12052800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12073500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11758000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11681100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11653300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11363900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11864100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11829100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12976700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12726700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11678100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10821500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10416300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10443600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10477100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10521000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10690500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10819800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10937100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9804400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8547200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8327600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8254600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>8145400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5175,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5258,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5341,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5424,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5507,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>477600</v>
+      </c>
+      <c r="E72" s="3">
         <v>450200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>406800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>359300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>347300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>339800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>327600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>320200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>315700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>421200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>532400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>708800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>993000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1223100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1107000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1048600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>992700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>990400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>710500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>560900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>514100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>512300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>247100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>159200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>119700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>74700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5673,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5756,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5839,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3183300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3143300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3029600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2915300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2904200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2784500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2722900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2686200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2623500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2677100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2736000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2895300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3169400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3451600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3320000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3285900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3233700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3217900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3029600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2845800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2795600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2722400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2459100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2322800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2240700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2238500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6005,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44925</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44743</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44652</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44470</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44379</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44288</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44197</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44106</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43644</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43553</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43462</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43371</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43280</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43189</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43098</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43007</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42734</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E81" s="3">
         <v>74200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>75800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>40300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>42600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-77600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-81200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-148600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-256400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-202300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>145800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>85600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>83000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>29400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>250700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>175500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>72600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>27600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>292300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>113100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>65300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>70200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>125300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6207,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E83" s="3">
         <v>136500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>131500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>133000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>132300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>135500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>138600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>136200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>137300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>138600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>151200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>148100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>148000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>147900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>145200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>148800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>147900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>150700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>152500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>156900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>152900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>133800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>130000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>126400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>125300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>126500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6373,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6456,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6539,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6622,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6705,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>314500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-607200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>836500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>375100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-503400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>423300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>337000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-115200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>251500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>217900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-309500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>776000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>119200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>292600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-203700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>901800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>121300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>335600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-311400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>604200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>21000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>454200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-26000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6819,91 +7039,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-102600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-128300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-87100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-99300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-73700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-153500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-106000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-79100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-119800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-85100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-114400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-99200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-162600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-110000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-116000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-114400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-195800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-184400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-129500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-118900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-212400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-125200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-108500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-106600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6985,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7068,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-84100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-189800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-351600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-112200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-177700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-131200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-327500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-84900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-90800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-109800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-109200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-87400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-160100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-107600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-136000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>194200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-193100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-195900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-224700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-177800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-169900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-106100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7182,40 +7415,41 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-28600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-28400</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-28300</v>
       </c>
       <c r="G96" s="3">
         <v>-28300</v>
       </c>
       <c r="H96" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="I96" s="3">
         <v>-28200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-28100</v>
       </c>
       <c r="J96" s="3">
         <v>-28100</v>
       </c>
       <c r="K96" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-28000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-27900</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-27800</v>
       </c>
       <c r="N96" s="3">
         <v>-27800</v>
@@ -7224,10 +7458,10 @@
         <v>-27800</v>
       </c>
       <c r="P96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-27100</v>
       </c>
       <c r="R96" s="3">
         <v>-27100</v>
@@ -7236,10 +7470,10 @@
         <v>-27100</v>
       </c>
       <c r="T96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="U96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-25800</v>
       </c>
       <c r="V96" s="3">
         <v>-25800</v>
@@ -7251,22 +7485,25 @@
         <v>-25800</v>
       </c>
       <c r="Y96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-25300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-25200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-25100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-25200</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7348,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7431,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7514,153 +7757,159 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-177900</v>
+      </c>
+      <c r="E100" s="3">
         <v>655300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-741200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>385700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-247100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>565000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-238400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-603300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1148200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-58700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1251000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>833700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>411600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-584200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>12700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-211500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>48100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-663800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>59100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>697700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1701100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-295400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>166000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-285800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>126500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E101" s="3">
         <v>11700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-14800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3800</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -7680,87 +7929,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-109400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-117100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>49200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-916600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>233800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>91900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1214300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>938300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>26600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>24700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-54500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>34900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>49100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-19600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-53100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>84100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>9200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-43900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARMK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>ARMK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,393 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44925</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44743</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44652</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44470</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44379</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44288</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44197</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44106</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43644</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43553</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43462</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43371</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43280</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43189</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43098</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43007</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42734</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4749200</v>
+      </c>
+      <c r="E8" s="3">
         <v>4602100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4601000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4390500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4127400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3860500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3948300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3551300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2981200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2819700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2743800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2692200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2152300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3731600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4253600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3951200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4010800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4000000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4265300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3913600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3971600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3939300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3965100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3654100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3593300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3621600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3735400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3543800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4314700</v>
+      </c>
+      <c r="E9" s="3">
         <v>4179400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4162100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3957500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3747800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3491200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3571000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3197200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2691100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2594200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2537500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2464300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2208000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3226700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3520600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3503300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3595000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3640000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3794400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3383800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3526300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3561500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3520100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3231100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3232400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3226200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3299300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3152300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>434500</v>
+      </c>
+      <c r="E10" s="3">
         <v>422700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>438900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>433000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>379600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>369300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>377300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>354100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>290100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>225500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>206300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>227900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-55700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>504900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>733000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>447900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>415800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>360000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>470900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>529800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>445300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>377800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>445000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>423000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>360900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>395400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>436100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>391500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,8 +1082,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1155,8 +1169,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,8 +1258,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1252,11 +1272,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1264,44 +1284,44 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-4100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>198600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-157300</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1318,8 +1338,8 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
@@ -1327,94 +1347,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E15" s="3">
         <v>136800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>136500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>131500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>133000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>132300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>135500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>138600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>136200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>137300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>138600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>151200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>148100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>148000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>147900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>145200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>148800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>147900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>150700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>152500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>156900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>152900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>133800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>130000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>126400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>125300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>126500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1468,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4545800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4420100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4401400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4192200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3979500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3718500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3808000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3418900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2967800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2814300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2764300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2786100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2479900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3829200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3999300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3745100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3821900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3877200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3892000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3631100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3784900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3802800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3746100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3436200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3438600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3430200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3491300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3353100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>203400</v>
+      </c>
+      <c r="E18" s="3">
         <v>182000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>199600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>198300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>147900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>142000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>140300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>132400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-93900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-327600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-97600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>254300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>206100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>188900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>122800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>373300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>282500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>186700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>136500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>219000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>217900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>154700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>191400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>244100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>190700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,180 +1679,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>263200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-114000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-101300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-98600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-91500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-89700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-93100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-93000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>26200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-96300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-107900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-92900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-98500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-78300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-85600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-82300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-84200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-82900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-92500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-89800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-94100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-76300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-62600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-61500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-97600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-65700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-68500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>602100</v>
+      </c>
+      <c r="E21" s="3">
         <v>204800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>234800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>231200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>189400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>184600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>182700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>178000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>175800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>46400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-50500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-272400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-48200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>323900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>265700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>255400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>186600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>441100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>342400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>253800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>195200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>276600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>285200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>219600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>219100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>304900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>247800</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1853,20 +1893,20 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1300</v>
       </c>
       <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>1300</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1883,8 +1923,8 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1904,180 +1944,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>466600</v>
+      </c>
+      <c r="E23" s="3">
         <v>68000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>98300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>99700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>56400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>52300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>47200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>39400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-90900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-120900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-203100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-421800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-197500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>174700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>120500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>106600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>38700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>290400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>189900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>96900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>42300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>142700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>155300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>93200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>93800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>178400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E24" s="3">
         <v>12100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-21000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-17300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-54500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-97400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>51000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>68300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>57800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>42100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>27800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>23600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>52900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2211,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>338600</v>
+      </c>
+      <c r="E26" s="3">
         <v>55900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>73700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>75400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>40500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>42700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>60400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>28800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-89800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-103600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-148600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-324400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-198300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>145900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>85400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>83100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>30200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>239400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>121600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>72700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>51400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>84900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>113200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>65400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>70200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>125400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>83400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>338500</v>
+      </c>
+      <c r="E27" s="3">
         <v>56000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>74200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>75800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>40300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>61500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-89700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-103400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-148200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-324500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-198600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>145800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>85600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>83000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>30300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>239400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>121500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>72600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>51300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>84800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>113100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>65300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>70200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>125300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2478,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2443,56 +2504,56 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-26100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>3800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>12100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>22200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>68100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>11300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>54000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-23700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>207500</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2506,8 +2567,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2656,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2745,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-263200</v>
+      </c>
+      <c r="E32" s="3">
         <v>114000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>101300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>98600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>91500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>89700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>93100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>93000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-26200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>96300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>107900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>92900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>98500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>78300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>85600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>82300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>84200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>82900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>92500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>89800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>94100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>76300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>62600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>61500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>97600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>65700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>338500</v>
+      </c>
+      <c r="E33" s="3">
         <v>56000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>74200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>75800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>40300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-77600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-81200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-148600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-256400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-202300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>145800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>85600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>83000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>29400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>250700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>175500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>72600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>27600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>292300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>113100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>65300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>70200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>125300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3012,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>338500</v>
+      </c>
+      <c r="E35" s="3">
         <v>56000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>74200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>75800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>40300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-77600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-81200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-148600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-256400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-202300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>145800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>85600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>83000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>29400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>250700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>175500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>72600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>27600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>292300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>113100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>65300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>70200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>125300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44925</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44743</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44652</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44470</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44379</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44288</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44197</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44106</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43644</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43553</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43462</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43371</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43280</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43189</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43098</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43007</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42734</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3230,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,94 +3263,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>402400</v>
+      </c>
+      <c r="E41" s="3">
         <v>302700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>305100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>329500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>438900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>429300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>415500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>532600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>483400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1166200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2509200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2417300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1203000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>264600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>246600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>220100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>195400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>249900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>215000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>166000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>185500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>185700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>238800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>154700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>145500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>147000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3349,352 +3439,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2405900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2353600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2299800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2148000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2052200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1989000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1896700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1748600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1532900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1466100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1511100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1431200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1423200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1851000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1971900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1807000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1832900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1878200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1880300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1790400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1851900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1875200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1813300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1616000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1532900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1508000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1492300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1476300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>593200</v>
+      </c>
+      <c r="E44" s="3">
         <v>609600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>569800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>552400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>514900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>435600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>393300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>412700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>402900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>424500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>427200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>436500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>426800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>403800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>397900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>411300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>393100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>400300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>371100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>724800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>705400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>718200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>614900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>610700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>567600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>571600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>563900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>587200</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>324400</v>
+      </c>
+      <c r="E45" s="3">
         <v>330700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>260500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>262200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>192000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>219200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>205200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>205000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>201700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>215900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>311600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>298900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>289900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>198600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>194400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>193500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>196000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>156800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>148700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>171200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>186800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>197400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>198400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>187600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>209300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>169500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>170400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>276500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3725900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3596600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3435100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3292000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3198000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3073100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2910700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2898900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2620900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3506500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3416100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4675800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4557100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3656300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2828900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2658400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2642100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2630600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2650000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2901400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2910100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2976300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2812300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2653100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2464400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2394600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2373600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2492600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3779,180 +3884,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2682300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2661500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2644900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2624200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2617100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2591600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2589500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2626200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2567400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2552300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2592400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2602300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2617400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2709000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2720000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2181800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2143800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2142900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2153200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1378100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1321400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1356600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1035200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1042000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>981500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1004600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>997600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1023100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7676300</v>
+      </c>
+      <c r="E49" s="3">
         <v>7673800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7644300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7628900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7701900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7532000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7557000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7515900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7558900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7274000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7303800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7276500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7283100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7305700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7550800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7552400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7590900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7610200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7605500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7747400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7776800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7795000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7154600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5836300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5823900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5748700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5692600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5740800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4151,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4240,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1313100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1524200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1566200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1537400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1471700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1465500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1408300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1335100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1302900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1154800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1193900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1158100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1164500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1176400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1173300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1343800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1352700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1327100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1330300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1693200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1657300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1604800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1524700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1474700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1380500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1347500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1320200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1325700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4418,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15397500</v>
+      </c>
+      <c r="E54" s="3">
         <v>15456100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15290500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15082400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14988800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14662200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14465500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14376200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14050100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14487700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14506200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15712700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15622100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14847500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14273100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13736300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13729500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13710800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13738900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13720100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13665500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>13732800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12526800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11006200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10650400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10495300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>10383900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>10582100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4542,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,524 +4575,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1048600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1137900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1092600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1322900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>908100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>928800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>785400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>919100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>675600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>684900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>644300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>663500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>618100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>785900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>855200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>999500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>819900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>911800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>866200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1018900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>846700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>840400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>833400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>955900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>728900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>803900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>702800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>847100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E58" s="3">
         <v>110500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>102700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>65000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>77500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>66600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>52900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>58900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>74100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>80800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>98300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>99900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>90100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>103400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>83000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>69900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>53700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>56300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>53400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>30900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>82000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>72500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>71200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>78200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>74200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>79600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>47600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1716800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1719700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1488900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1897900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1574300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1704200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1533000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1879500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1592500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1631500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1534000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1584100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1411100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1408600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1359300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1635900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1285700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1343000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1277700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1440300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1213900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1385200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1108000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1334000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1098800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1168400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1028800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1291100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2876000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2968100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2684200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3285900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2559900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2699600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2371200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2857400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2342200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2397200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2276600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2347500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2119300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2297900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2297500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2705300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2159400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2311100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2197300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2490200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2142600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2298100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2012600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2368100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1901900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2051900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1779200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2184700</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7535800</v>
+      </c>
+      <c r="E61" s="3">
         <v>7906600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8056300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7345900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8084800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7727100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7981600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7393400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7591800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8105600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8111100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9178500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9169500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7862600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7087700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6612200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7198900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7134300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7323700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7213100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7788300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7749500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6976500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5190300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5440100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5214800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5364900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5223500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1426400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1390000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1398500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1412200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1419600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1322400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1319100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1393400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1420100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1351600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1431500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1440700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1427600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1507400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1426300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1088800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1075200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1021700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1000100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>987300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>888800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>889600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>815400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>988700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>985600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>988000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1001300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1012800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5196,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5285,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5374,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11846200</v>
+      </c>
+      <c r="E66" s="3">
         <v>12272800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12147300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12052800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12073500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11758000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11681100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11653300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11363900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11864100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11829100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12976700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12726700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11678100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10821500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10416300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10443600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10477100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10521000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10690500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10819800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10937100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9804400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8547200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8327600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>8254600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>8145400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>8421100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5498,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5585,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5674,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5763,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5852,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>787400</v>
+      </c>
+      <c r="E72" s="3">
         <v>477600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>450200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>406800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>359300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>347300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>339800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>327600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>320200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>315700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>421200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>532400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>708800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>993000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1223100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1107000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1048600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>992700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>990400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>710500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>560900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>514100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>512300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>247100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>159200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>119700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>74700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-33800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6030,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6119,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6208,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3551300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3183300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3143300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3029600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2915300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2904200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2784500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2722900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2686200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2623500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2677100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2736000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2895300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3169400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3451600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3320000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3285900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3233700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3217900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3029600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2845800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2795600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2722400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2459100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2322800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2240700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2238500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6386,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44925</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44743</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44652</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44470</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44379</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44288</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44197</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44106</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43644</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43553</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43462</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43371</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43280</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43189</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43098</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43007</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42734</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>338500</v>
+      </c>
+      <c r="E81" s="3">
         <v>56000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>74200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>75800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>40300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-77600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-81200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-148600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-256400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-202300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>145800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>85600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>83000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>29400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>250700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>175500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>72600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>27600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>292300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>113100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>65300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>70200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>125300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6604,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E83" s="3">
         <v>136800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>136500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>131500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>133000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>132300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>135500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>138600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>136200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>137300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>138600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>151200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>148100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>148000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>147900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>145200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>148800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>147900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>150700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>152500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>156900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>152900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>133800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>130000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>126400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>125300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>126500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6780,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6869,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6958,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7047,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,94 +7136,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E89" s="3">
         <v>314500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-607200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>836500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>375100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-503400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>423300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>337000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-115200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>251500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>217900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-309500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>776000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>119200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>292600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-203700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>901800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>121300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>335600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-311400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>604200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>21000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>454200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-26000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,94 +7260,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-108300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-102600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-128300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-87100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-99300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-73700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-153500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-106000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-79100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-69200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-119800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-85100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-114400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-99200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-162600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-110000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-116000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-114400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-195800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-184400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-129500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-118900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-212400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-125200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-108500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-106600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-324700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7436,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,94 +7525,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>507800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-141700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-84100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-189800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-351600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-112200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-177700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-131200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-327500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-84900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-90800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-109800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-109200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-87400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-160100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-107600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-136000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>194200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-193100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-195900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1033500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1442800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-224700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-177800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-169900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-106100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-295400</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,8 +7649,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7425,34 +7659,34 @@
         <v>-28700</v>
       </c>
       <c r="E96" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-28600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-28400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-28300</v>
       </c>
       <c r="H96" s="3">
         <v>-28300</v>
       </c>
       <c r="I96" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="J96" s="3">
         <v>-28200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-28100</v>
       </c>
       <c r="K96" s="3">
         <v>-28100</v>
       </c>
       <c r="L96" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-28000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-27900</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-27800</v>
       </c>
       <c r="O96" s="3">
         <v>-27800</v>
@@ -7461,10 +7695,10 @@
         <v>-27800</v>
       </c>
       <c r="Q96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="R96" s="3">
         <v>-27500</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-27100</v>
       </c>
       <c r="S96" s="3">
         <v>-27100</v>
@@ -7473,10 +7707,10 @@
         <v>-27100</v>
       </c>
       <c r="U96" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="V96" s="3">
         <v>-27200</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-25800</v>
       </c>
       <c r="W96" s="3">
         <v>-25800</v>
@@ -7488,22 +7722,25 @@
         <v>-25800</v>
       </c>
       <c r="Z96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-25300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-25200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-25100</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-25200</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-23200</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7825,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7914,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,159 +8003,165 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-429400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-177900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>655300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-741200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>385700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-247100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>565000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-238400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-603300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1148200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-58700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1251000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>833700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>411600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-584200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>12700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-211500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>48100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-663800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>59100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>697700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1701100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-295400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>166000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-285800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>126500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-190200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>2800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>11700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-14800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3800</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="X101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -7932,90 +8181,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-109400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-117100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>49200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-916600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>233800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1343000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>91900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1214300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>938300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>26600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>24700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-54500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>34900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>49100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-19600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-53100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>84100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>9200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-43900</v>
       </c>
     </row>
